--- a/data/raw/election/voters-age-sex-education/2023/Tekirdağ.xlsx
+++ b/data/raw/election/voters-age-sex-education/2023/Tekirdağ.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - baskent.edu.tr\MAKALE\2024\5-anomaly-detection-in-elections\data\2023-iibs3-age_sex_education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurtarılan_Sayfa1" sheetId="2" r:id="rId1"/>
+    <sheet name="18-10-2024-17:01:52-20448510246" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="40">
   <si>
     <t>Tekirdağ</t>
   </si>
@@ -134,6 +133,12 @@
   </si>
   <si>
     <t>Şarköy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not. 1.Seçmenlerin yaşı, 14 Mayıs 2023 tarihine göre gün, ay ve yıl dikkate alınarak hesaplanmıştır. </t>
+  </si>
+  <si>
+    <t>2.Seçmenlerin eğitim durumu, Ulusal Eğitim İstatistikleri Veri Tabanı'ndan alınmıştır.</t>
   </si>
 </sst>
 </file>
@@ -667,7 +672,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -681,16 +686,25 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1015,10 +1029,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N290"/>
+  <dimension ref="A1:N292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" workbookViewId="0">
-      <selection activeCell="A291" sqref="A291:A292"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,52 +1048,52 @@
     <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.140625" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" customWidth="1"/>
+    <col min="13" max="13" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1133,14 +1147,14 @@
       <c r="F6" s="4">
         <v>10</v>
       </c>
-      <c r="G6" s="4">
-        <v>3.798</v>
-      </c>
-      <c r="H6" s="4">
-        <v>6.6859999999999999</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1.1359999999999999</v>
+      <c r="G6" s="5">
+        <v>3798</v>
+      </c>
+      <c r="H6" s="5">
+        <v>6686</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1136</v>
       </c>
       <c r="J6" s="4">
         <v>6</v>
@@ -1151,8 +1165,8 @@
       <c r="L6" s="4">
         <v>154</v>
       </c>
-      <c r="M6" s="5">
-        <v>11.964</v>
+      <c r="M6" s="6">
+        <v>11964</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1172,14 +1186,14 @@
       <c r="F7" s="4">
         <v>7</v>
       </c>
-      <c r="G7" s="4">
-        <v>3.0840000000000001</v>
-      </c>
-      <c r="H7" s="4">
-        <v>5.9880000000000004</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1.756</v>
+      <c r="G7" s="5">
+        <v>3084</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5988</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1756</v>
       </c>
       <c r="J7" s="4">
         <v>11</v>
@@ -1190,8 +1204,8 @@
       <c r="L7" s="4">
         <v>39</v>
       </c>
-      <c r="M7" s="5">
-        <v>11.127000000000001</v>
+      <c r="M7" s="6">
+        <v>11127</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1213,14 +1227,14 @@
       <c r="F8" s="4">
         <v>179</v>
       </c>
-      <c r="G8" s="4">
-        <v>2.895</v>
-      </c>
-      <c r="H8" s="4">
-        <v>3.423</v>
-      </c>
-      <c r="I8" s="4">
-        <v>2.6829999999999998</v>
+      <c r="G8" s="5">
+        <v>2895</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3423</v>
+      </c>
+      <c r="I8" s="5">
+        <v>2683</v>
       </c>
       <c r="J8" s="4">
         <v>177</v>
@@ -1231,8 +1245,8 @@
       <c r="L8" s="4">
         <v>43</v>
       </c>
-      <c r="M8" s="5">
-        <v>9.5739999999999998</v>
+      <c r="M8" s="6">
+        <v>9574</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1252,14 +1266,14 @@
       <c r="F9" s="4">
         <v>201</v>
       </c>
-      <c r="G9" s="4">
-        <v>2.29</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2.5049999999999999</v>
-      </c>
-      <c r="I9" s="4">
-        <v>3.2450000000000001</v>
+      <c r="G9" s="5">
+        <v>2290</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2505</v>
+      </c>
+      <c r="I9" s="5">
+        <v>3245</v>
       </c>
       <c r="J9" s="4">
         <v>205</v>
@@ -1270,8 +1284,8 @@
       <c r="L9" s="4">
         <v>67</v>
       </c>
-      <c r="M9" s="5">
-        <v>9.2669999999999995</v>
+      <c r="M9" s="6">
+        <v>9267</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1290,17 +1304,17 @@
       <c r="E10" s="4">
         <v>147</v>
       </c>
-      <c r="F10" s="4">
-        <v>1.6719999999999999</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1.29</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3.5470000000000002</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2.58</v>
+      <c r="F10" s="5">
+        <v>1672</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1290</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3547</v>
+      </c>
+      <c r="I10" s="5">
+        <v>2580</v>
       </c>
       <c r="J10" s="4">
         <v>305</v>
@@ -1311,8 +1325,8 @@
       <c r="L10" s="4">
         <v>59</v>
       </c>
-      <c r="M10" s="5">
-        <v>9.7420000000000009</v>
+      <c r="M10" s="6">
+        <v>9742</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1329,17 +1343,17 @@
       <c r="E11" s="4">
         <v>374</v>
       </c>
-      <c r="F11" s="4">
-        <v>1.69</v>
+      <c r="F11" s="5">
+        <v>1690</v>
       </c>
       <c r="G11" s="4">
         <v>956</v>
       </c>
-      <c r="H11" s="4">
-        <v>2.4529999999999998</v>
-      </c>
-      <c r="I11" s="4">
-        <v>2.698</v>
+      <c r="H11" s="5">
+        <v>2453</v>
+      </c>
+      <c r="I11" s="5">
+        <v>2698</v>
       </c>
       <c r="J11" s="4">
         <v>311</v>
@@ -1350,8 +1364,8 @@
       <c r="L11" s="4">
         <v>87</v>
       </c>
-      <c r="M11" s="5">
-        <v>9.2509999999999994</v>
+      <c r="M11" s="6">
+        <v>9251</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1370,17 +1384,17 @@
       <c r="E12" s="4">
         <v>562</v>
       </c>
-      <c r="F12" s="4">
-        <v>1.786</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1.069</v>
-      </c>
-      <c r="H12" s="4">
-        <v>3.5670000000000002</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1.843</v>
+      <c r="F12" s="5">
+        <v>1786</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1069</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3567</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1843</v>
       </c>
       <c r="J12" s="4">
         <v>273</v>
@@ -1391,8 +1405,8 @@
       <c r="L12" s="4">
         <v>50</v>
       </c>
-      <c r="M12" s="5">
-        <v>9.2609999999999992</v>
+      <c r="M12" s="6">
+        <v>9261</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1406,20 +1420,20 @@
       <c r="D13" s="4">
         <v>269</v>
       </c>
-      <c r="E13" s="4">
-        <v>1.6040000000000001</v>
-      </c>
-      <c r="F13" s="4">
-        <v>1.5549999999999999</v>
-      </c>
-      <c r="G13" s="4">
-        <v>1.024</v>
-      </c>
-      <c r="H13" s="4">
-        <v>2.4950000000000001</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1.5589999999999999</v>
+      <c r="E13" s="5">
+        <v>1604</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1555</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1024</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2495</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1559</v>
       </c>
       <c r="J13" s="4">
         <v>195</v>
@@ -1430,8 +1444,8 @@
       <c r="L13" s="4">
         <v>47</v>
       </c>
-      <c r="M13" s="5">
-        <v>8.9190000000000005</v>
+      <c r="M13" s="6">
+        <v>8919</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1450,17 +1464,17 @@
       <c r="E14" s="4">
         <v>919</v>
       </c>
-      <c r="F14" s="4">
-        <v>1.4139999999999999</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1.74</v>
-      </c>
-      <c r="H14" s="4">
-        <v>3.645</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1.3380000000000001</v>
+      <c r="F14" s="5">
+        <v>1414</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1740</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3645</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1338</v>
       </c>
       <c r="J14" s="4">
         <v>190</v>
@@ -1471,8 +1485,8 @@
       <c r="L14" s="4">
         <v>42</v>
       </c>
-      <c r="M14" s="5">
-        <v>9.3699999999999992</v>
+      <c r="M14" s="6">
+        <v>9370</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1486,20 +1500,20 @@
       <c r="D15" s="4">
         <v>261</v>
       </c>
-      <c r="E15" s="4">
-        <v>2.298</v>
-      </c>
-      <c r="F15" s="4">
-        <v>1.212</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1.37</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2.1819999999999999</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1.0589999999999999</v>
+      <c r="E15" s="5">
+        <v>2298</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1212</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1370</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2182</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1059</v>
       </c>
       <c r="J15" s="4">
         <v>141</v>
@@ -1510,8 +1524,8 @@
       <c r="L15" s="4">
         <v>33</v>
       </c>
-      <c r="M15" s="5">
-        <v>8.7430000000000003</v>
+      <c r="M15" s="6">
+        <v>8743</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1530,14 +1544,14 @@
       <c r="E16" s="4">
         <v>996</v>
       </c>
-      <c r="F16" s="4">
-        <v>1.4530000000000001</v>
-      </c>
-      <c r="G16" s="4">
-        <v>1.343</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2.5790000000000002</v>
+      <c r="F16" s="5">
+        <v>1453</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1343</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2579</v>
       </c>
       <c r="I16" s="4">
         <v>834</v>
@@ -1551,8 +1565,8 @@
       <c r="L16" s="4">
         <v>35</v>
       </c>
-      <c r="M16" s="5">
-        <v>7.4039999999999999</v>
+      <c r="M16" s="6">
+        <v>7404</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1566,17 +1580,17 @@
       <c r="D17" s="4">
         <v>228</v>
       </c>
-      <c r="E17" s="4">
-        <v>2.0049999999999999</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1.044</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1.371</v>
+      <c r="E17" s="5">
+        <v>2005</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1187</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1044</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1371</v>
       </c>
       <c r="I17" s="4">
         <v>546</v>
@@ -1590,8 +1604,8 @@
       <c r="L17" s="4">
         <v>51</v>
       </c>
-      <c r="M17" s="5">
-        <v>6.6219999999999999</v>
+      <c r="M17" s="6">
+        <v>6622</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1610,14 +1624,14 @@
       <c r="E18" s="4">
         <v>912</v>
       </c>
-      <c r="F18" s="4">
-        <v>1.3740000000000001</v>
-      </c>
-      <c r="G18" s="4">
-        <v>1.208</v>
-      </c>
-      <c r="H18" s="4">
-        <v>1.5249999999999999</v>
+      <c r="F18" s="5">
+        <v>1374</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1208</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1525</v>
       </c>
       <c r="I18" s="4">
         <v>563</v>
@@ -1631,8 +1645,8 @@
       <c r="L18" s="4">
         <v>44</v>
       </c>
-      <c r="M18" s="5">
-        <v>5.7290000000000001</v>
+      <c r="M18" s="6">
+        <v>5729</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1646,11 +1660,11 @@
       <c r="D19" s="4">
         <v>176</v>
       </c>
-      <c r="E19" s="4">
-        <v>1.802</v>
-      </c>
-      <c r="F19" s="4">
-        <v>1.014</v>
+      <c r="E19" s="5">
+        <v>1802</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1014</v>
       </c>
       <c r="G19" s="4">
         <v>819</v>
@@ -1670,8 +1684,8 @@
       <c r="L19" s="4">
         <v>35</v>
       </c>
-      <c r="M19" s="5">
-        <v>5.0810000000000004</v>
+      <c r="M19" s="6">
+        <v>5081</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1690,8 +1704,8 @@
       <c r="E20" s="4">
         <v>879</v>
       </c>
-      <c r="F20" s="4">
-        <v>1.077</v>
+      <c r="F20" s="5">
+        <v>1077</v>
       </c>
       <c r="G20" s="4">
         <v>869</v>
@@ -1711,8 +1725,8 @@
       <c r="L20" s="4">
         <v>24</v>
       </c>
-      <c r="M20" s="5">
-        <v>4.1180000000000003</v>
+      <c r="M20" s="6">
+        <v>4118</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1726,8 +1740,8 @@
       <c r="D21" s="4">
         <v>245</v>
       </c>
-      <c r="E21" s="4">
-        <v>1.6739999999999999</v>
+      <c r="E21" s="5">
+        <v>1674</v>
       </c>
       <c r="F21" s="4">
         <v>581</v>
@@ -1750,8 +1764,8 @@
       <c r="L21" s="4">
         <v>34</v>
       </c>
-      <c r="M21" s="5">
-        <v>3.6960000000000002</v>
+      <c r="M21" s="6">
+        <v>3696</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1791,8 +1805,8 @@
       <c r="L22" s="4">
         <v>19</v>
       </c>
-      <c r="M22" s="5">
-        <v>2.8450000000000002</v>
+      <c r="M22" s="6">
+        <v>2845</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1806,8 +1820,8 @@
       <c r="D23" s="4">
         <v>262</v>
       </c>
-      <c r="E23" s="4">
-        <v>1.429</v>
+      <c r="E23" s="5">
+        <v>1429</v>
       </c>
       <c r="F23" s="4">
         <v>245</v>
@@ -1830,8 +1844,8 @@
       <c r="L23" s="4">
         <v>25</v>
       </c>
-      <c r="M23" s="5">
-        <v>2.7189999999999999</v>
+      <c r="M23" s="6">
+        <v>2719</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1871,8 +1885,8 @@
       <c r="L24" s="4">
         <v>30</v>
       </c>
-      <c r="M24" s="5">
-        <v>1.9419999999999999</v>
+      <c r="M24" s="6">
+        <v>1942</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1886,8 +1900,8 @@
       <c r="D25" s="4">
         <v>255</v>
       </c>
-      <c r="E25" s="4">
-        <v>1.141</v>
+      <c r="E25" s="5">
+        <v>1141</v>
       </c>
       <c r="F25" s="4">
         <v>78</v>
@@ -1910,8 +1924,8 @@
       <c r="L25" s="4">
         <v>19</v>
       </c>
-      <c r="M25" s="5">
-        <v>2.097</v>
+      <c r="M25" s="6">
+        <v>2097</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1951,8 +1965,8 @@
       <c r="L26" s="4">
         <v>10</v>
       </c>
-      <c r="M26" s="5">
-        <v>1.089</v>
+      <c r="M26" s="6">
+        <v>1089</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1990,8 +2004,8 @@
       <c r="L27" s="4">
         <v>19</v>
       </c>
-      <c r="M27" s="5">
-        <v>1.256</v>
+      <c r="M27" s="6">
+        <v>1256</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2031,7 +2045,7 @@
       <c r="L28" s="4">
         <v>16</v>
       </c>
-      <c r="M28" s="5">
+      <c r="M28" s="7">
         <v>941</v>
       </c>
     </row>
@@ -2070,54 +2084,54 @@
       <c r="L29" s="4">
         <v>33</v>
       </c>
-      <c r="M29" s="5">
-        <v>1.5089999999999999</v>
+      <c r="M29" s="6">
+        <v>1509</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5">
-        <v>2.4820000000000002</v>
-      </c>
-      <c r="D30" s="5">
-        <v>3.8130000000000002</v>
-      </c>
-      <c r="E30" s="5">
-        <v>21.690999999999999</v>
-      </c>
-      <c r="F30" s="5">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G30" s="5">
-        <v>26.73</v>
-      </c>
-      <c r="H30" s="5">
-        <v>45.545999999999999</v>
-      </c>
-      <c r="I30" s="5">
-        <v>23.073</v>
-      </c>
-      <c r="J30" s="5">
-        <v>2.1629999999999998</v>
-      </c>
-      <c r="K30" s="5">
+      <c r="B30" s="8"/>
+      <c r="C30" s="6">
+        <v>2482</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3813</v>
+      </c>
+      <c r="E30" s="6">
+        <v>21691</v>
+      </c>
+      <c r="F30" s="6">
+        <v>17600</v>
+      </c>
+      <c r="G30" s="6">
+        <v>26730</v>
+      </c>
+      <c r="H30" s="6">
+        <v>45546</v>
+      </c>
+      <c r="I30" s="6">
+        <v>23073</v>
+      </c>
+      <c r="J30" s="6">
+        <v>2163</v>
+      </c>
+      <c r="K30" s="7">
         <v>153</v>
       </c>
-      <c r="L30" s="5">
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="M30" s="5">
-        <v>144.26599999999999</v>
+      <c r="L30" s="6">
+        <v>1015</v>
+      </c>
+      <c r="M30" s="6">
+        <v>144266</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2171,14 +2185,14 @@
       <c r="F32" s="4">
         <v>11</v>
       </c>
-      <c r="G32" s="4">
-        <v>3.431</v>
-      </c>
-      <c r="H32" s="4">
-        <v>8.468</v>
-      </c>
-      <c r="I32" s="4">
-        <v>1.7869999999999999</v>
+      <c r="G32" s="5">
+        <v>3431</v>
+      </c>
+      <c r="H32" s="5">
+        <v>8468</v>
+      </c>
+      <c r="I32" s="5">
+        <v>1787</v>
       </c>
       <c r="J32" s="4">
         <v>14</v>
@@ -2189,8 +2203,8 @@
       <c r="L32" s="4">
         <v>85</v>
       </c>
-      <c r="M32" s="5">
-        <v>13.968</v>
+      <c r="M32" s="6">
+        <v>13968</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2210,14 +2224,14 @@
       <c r="F33" s="4">
         <v>8</v>
       </c>
-      <c r="G33" s="4">
-        <v>2.6190000000000002</v>
-      </c>
-      <c r="H33" s="4">
-        <v>7.5060000000000002</v>
-      </c>
-      <c r="I33" s="4">
-        <v>2.766</v>
+      <c r="G33" s="5">
+        <v>2619</v>
+      </c>
+      <c r="H33" s="5">
+        <v>7506</v>
+      </c>
+      <c r="I33" s="5">
+        <v>2766</v>
       </c>
       <c r="J33" s="4">
         <v>30</v>
@@ -2228,8 +2242,8 @@
       <c r="L33" s="4">
         <v>23</v>
       </c>
-      <c r="M33" s="5">
-        <v>13.167999999999999</v>
+      <c r="M33" s="6">
+        <v>13168</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2251,14 +2265,14 @@
       <c r="F34" s="4">
         <v>125</v>
       </c>
-      <c r="G34" s="4">
-        <v>2.456</v>
-      </c>
-      <c r="H34" s="4">
-        <v>3.972</v>
-      </c>
-      <c r="I34" s="4">
-        <v>4.3319999999999999</v>
+      <c r="G34" s="5">
+        <v>2456</v>
+      </c>
+      <c r="H34" s="5">
+        <v>3972</v>
+      </c>
+      <c r="I34" s="5">
+        <v>4332</v>
       </c>
       <c r="J34" s="4">
         <v>259</v>
@@ -2269,8 +2283,8 @@
       <c r="L34" s="4">
         <v>45</v>
       </c>
-      <c r="M34" s="5">
-        <v>11.311</v>
+      <c r="M34" s="6">
+        <v>11311</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2290,14 +2304,14 @@
       <c r="F35" s="4">
         <v>165</v>
       </c>
-      <c r="G35" s="4">
-        <v>2.0870000000000002</v>
-      </c>
-      <c r="H35" s="4">
-        <v>2.6989999999999998</v>
-      </c>
-      <c r="I35" s="4">
-        <v>5.5039999999999996</v>
+      <c r="G35" s="5">
+        <v>2087</v>
+      </c>
+      <c r="H35" s="5">
+        <v>2699</v>
+      </c>
+      <c r="I35" s="5">
+        <v>5504</v>
       </c>
       <c r="J35" s="4">
         <v>411</v>
@@ -2308,8 +2322,8 @@
       <c r="L35" s="4">
         <v>56</v>
       </c>
-      <c r="M35" s="5">
-        <v>11.329000000000001</v>
+      <c r="M35" s="6">
+        <v>11329</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2328,17 +2342,17 @@
       <c r="E36" s="4">
         <v>107</v>
       </c>
-      <c r="F36" s="4">
-        <v>1.526</v>
-      </c>
-      <c r="G36" s="4">
-        <v>1.208</v>
-      </c>
-      <c r="H36" s="4">
-        <v>4.4039999999999999</v>
-      </c>
-      <c r="I36" s="4">
-        <v>4.3840000000000003</v>
+      <c r="F36" s="5">
+        <v>1526</v>
+      </c>
+      <c r="G36" s="5">
+        <v>1208</v>
+      </c>
+      <c r="H36" s="5">
+        <v>4404</v>
+      </c>
+      <c r="I36" s="5">
+        <v>4384</v>
       </c>
       <c r="J36" s="4">
         <v>507</v>
@@ -2349,8 +2363,8 @@
       <c r="L36" s="4">
         <v>69</v>
       </c>
-      <c r="M36" s="5">
-        <v>12.348000000000001</v>
+      <c r="M36" s="6">
+        <v>12348</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2367,17 +2381,17 @@
       <c r="E37" s="4">
         <v>249</v>
       </c>
-      <c r="F37" s="4">
-        <v>1.5629999999999999</v>
-      </c>
-      <c r="G37" s="4">
-        <v>1.0620000000000001</v>
-      </c>
-      <c r="H37" s="4">
-        <v>3.0750000000000002</v>
-      </c>
-      <c r="I37" s="4">
-        <v>4.8739999999999997</v>
+      <c r="F37" s="5">
+        <v>1563</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1062</v>
+      </c>
+      <c r="H37" s="5">
+        <v>3075</v>
+      </c>
+      <c r="I37" s="5">
+        <v>4874</v>
       </c>
       <c r="J37" s="4">
         <v>602</v>
@@ -2388,8 +2402,8 @@
       <c r="L37" s="4">
         <v>118</v>
       </c>
-      <c r="M37" s="5">
-        <v>11.917999999999999</v>
+      <c r="M37" s="6">
+        <v>11918</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2408,17 +2422,17 @@
       <c r="E38" s="4">
         <v>596</v>
       </c>
-      <c r="F38" s="4">
-        <v>1.802</v>
-      </c>
-      <c r="G38" s="4">
-        <v>1.1739999999999999</v>
-      </c>
-      <c r="H38" s="4">
-        <v>4.7160000000000002</v>
-      </c>
-      <c r="I38" s="4">
-        <v>3.8</v>
+      <c r="F38" s="5">
+        <v>1802</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1174</v>
+      </c>
+      <c r="H38" s="5">
+        <v>4716</v>
+      </c>
+      <c r="I38" s="5">
+        <v>3800</v>
       </c>
       <c r="J38" s="4">
         <v>475</v>
@@ -2429,8 +2443,8 @@
       <c r="L38" s="4">
         <v>83</v>
       </c>
-      <c r="M38" s="5">
-        <v>12.731999999999999</v>
+      <c r="M38" s="6">
+        <v>12732</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2444,20 +2458,20 @@
       <c r="D39" s="4">
         <v>176</v>
       </c>
-      <c r="E39" s="4">
-        <v>1.389</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1.756</v>
-      </c>
-      <c r="G39" s="4">
-        <v>1.216</v>
-      </c>
-      <c r="H39" s="4">
-        <v>3.823</v>
-      </c>
-      <c r="I39" s="4">
-        <v>3.8690000000000002</v>
+      <c r="E39" s="5">
+        <v>1389</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1756</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1216</v>
+      </c>
+      <c r="H39" s="5">
+        <v>3823</v>
+      </c>
+      <c r="I39" s="5">
+        <v>3869</v>
       </c>
       <c r="J39" s="4">
         <v>489</v>
@@ -2468,8 +2482,8 @@
       <c r="L39" s="4">
         <v>95</v>
       </c>
-      <c r="M39" s="5">
-        <v>12.901999999999999</v>
+      <c r="M39" s="6">
+        <v>12902</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2485,20 +2499,20 @@
       <c r="D40" s="4">
         <v>38</v>
       </c>
-      <c r="E40" s="4">
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1.671</v>
-      </c>
-      <c r="G40" s="4">
-        <v>2.1640000000000001</v>
-      </c>
-      <c r="H40" s="4">
-        <v>5.4690000000000003</v>
-      </c>
-      <c r="I40" s="4">
-        <v>3.3069999999999999</v>
+      <c r="E40" s="5">
+        <v>1126</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1671</v>
+      </c>
+      <c r="G40" s="5">
+        <v>2164</v>
+      </c>
+      <c r="H40" s="5">
+        <v>5469</v>
+      </c>
+      <c r="I40" s="5">
+        <v>3307</v>
       </c>
       <c r="J40" s="4">
         <v>449</v>
@@ -2509,8 +2523,8 @@
       <c r="L40" s="4">
         <v>75</v>
       </c>
-      <c r="M40" s="5">
-        <v>14.36</v>
+      <c r="M40" s="6">
+        <v>14360</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -2524,20 +2538,20 @@
       <c r="D41" s="4">
         <v>145</v>
       </c>
-      <c r="E41" s="4">
-        <v>2.14</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1.673</v>
-      </c>
-      <c r="G41" s="4">
-        <v>1.903</v>
-      </c>
-      <c r="H41" s="4">
-        <v>4.2969999999999997</v>
-      </c>
-      <c r="I41" s="4">
-        <v>3.077</v>
+      <c r="E41" s="5">
+        <v>2140</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1673</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1903</v>
+      </c>
+      <c r="H41" s="5">
+        <v>4297</v>
+      </c>
+      <c r="I41" s="5">
+        <v>3077</v>
       </c>
       <c r="J41" s="4">
         <v>382</v>
@@ -2548,8 +2562,8 @@
       <c r="L41" s="4">
         <v>90</v>
       </c>
-      <c r="M41" s="5">
-        <v>13.82</v>
+      <c r="M41" s="6">
+        <v>13820</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -2565,20 +2579,20 @@
       <c r="D42" s="4">
         <v>25</v>
       </c>
-      <c r="E42" s="4">
-        <v>1.1279999999999999</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1.9039999999999999</v>
-      </c>
-      <c r="G42" s="4">
-        <v>1.7509999999999999</v>
-      </c>
-      <c r="H42" s="4">
-        <v>4.4459999999999997</v>
-      </c>
-      <c r="I42" s="4">
-        <v>2.3980000000000001</v>
+      <c r="E42" s="5">
+        <v>1128</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1904</v>
+      </c>
+      <c r="G42" s="5">
+        <v>1751</v>
+      </c>
+      <c r="H42" s="5">
+        <v>4446</v>
+      </c>
+      <c r="I42" s="5">
+        <v>2398</v>
       </c>
       <c r="J42" s="4">
         <v>295</v>
@@ -2589,8 +2603,8 @@
       <c r="L42" s="4">
         <v>74</v>
       </c>
-      <c r="M42" s="5">
-        <v>12.073</v>
+      <c r="M42" s="6">
+        <v>12073</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -2604,20 +2618,20 @@
       <c r="D43" s="4">
         <v>138</v>
       </c>
-      <c r="E43" s="4">
-        <v>2.0990000000000002</v>
-      </c>
-      <c r="F43" s="4">
-        <v>1.579</v>
-      </c>
-      <c r="G43" s="4">
-        <v>1.6639999999999999</v>
-      </c>
-      <c r="H43" s="4">
-        <v>3.41</v>
-      </c>
-      <c r="I43" s="4">
-        <v>1.8640000000000001</v>
+      <c r="E43" s="5">
+        <v>2099</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1579</v>
+      </c>
+      <c r="G43" s="5">
+        <v>1664</v>
+      </c>
+      <c r="H43" s="5">
+        <v>3410</v>
+      </c>
+      <c r="I43" s="5">
+        <v>1864</v>
       </c>
       <c r="J43" s="4">
         <v>216</v>
@@ -2628,8 +2642,8 @@
       <c r="L43" s="4">
         <v>62</v>
       </c>
-      <c r="M43" s="5">
-        <v>11.122</v>
+      <c r="M43" s="6">
+        <v>11122</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2645,20 +2659,20 @@
       <c r="D44" s="4">
         <v>17</v>
       </c>
-      <c r="E44" s="4">
-        <v>1.1639999999999999</v>
-      </c>
-      <c r="F44" s="4">
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="G44" s="4">
-        <v>1.5880000000000001</v>
-      </c>
-      <c r="H44" s="4">
-        <v>3.286</v>
-      </c>
-      <c r="I44" s="4">
-        <v>1.552</v>
+      <c r="E44" s="5">
+        <v>1164</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1703</v>
+      </c>
+      <c r="G44" s="5">
+        <v>1588</v>
+      </c>
+      <c r="H44" s="5">
+        <v>3286</v>
+      </c>
+      <c r="I44" s="5">
+        <v>1552</v>
       </c>
       <c r="J44" s="4">
         <v>214</v>
@@ -2669,8 +2683,8 @@
       <c r="L44" s="4">
         <v>62</v>
       </c>
-      <c r="M44" s="5">
-        <v>9.6449999999999996</v>
+      <c r="M44" s="6">
+        <v>9645</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2684,20 +2698,20 @@
       <c r="D45" s="4">
         <v>166</v>
       </c>
-      <c r="E45" s="4">
-        <v>2.2570000000000001</v>
-      </c>
-      <c r="F45" s="4">
-        <v>1.339</v>
-      </c>
-      <c r="G45" s="4">
-        <v>1.3120000000000001</v>
-      </c>
-      <c r="H45" s="4">
-        <v>2.5680000000000001</v>
-      </c>
-      <c r="I45" s="4">
-        <v>1.0069999999999999</v>
+      <c r="E45" s="5">
+        <v>2257</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1339</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1312</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2568</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1007</v>
       </c>
       <c r="J45" s="4">
         <v>103</v>
@@ -2708,8 +2722,8 @@
       <c r="L45" s="4">
         <v>76</v>
       </c>
-      <c r="M45" s="5">
-        <v>8.9480000000000004</v>
+      <c r="M45" s="6">
+        <v>8948</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2725,20 +2739,20 @@
       <c r="D46" s="4">
         <v>28</v>
       </c>
-      <c r="E46" s="4">
-        <v>1.3</v>
-      </c>
-      <c r="F46" s="4">
-        <v>1.36</v>
-      </c>
-      <c r="G46" s="4">
-        <v>1.2150000000000001</v>
-      </c>
-      <c r="H46" s="4">
-        <v>2.2850000000000001</v>
-      </c>
-      <c r="I46" s="4">
-        <v>1.0569999999999999</v>
+      <c r="E46" s="5">
+        <v>1300</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1360</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1215</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2285</v>
+      </c>
+      <c r="I46" s="5">
+        <v>1057</v>
       </c>
       <c r="J46" s="4">
         <v>126</v>
@@ -2749,8 +2763,8 @@
       <c r="L46" s="4">
         <v>54</v>
       </c>
-      <c r="M46" s="5">
-        <v>7.4809999999999999</v>
+      <c r="M46" s="6">
+        <v>7481</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2764,17 +2778,17 @@
       <c r="D47" s="4">
         <v>229</v>
       </c>
-      <c r="E47" s="4">
-        <v>2.3479999999999999</v>
+      <c r="E47" s="5">
+        <v>2348</v>
       </c>
       <c r="F47" s="4">
         <v>978</v>
       </c>
-      <c r="G47" s="4">
-        <v>1.048</v>
-      </c>
-      <c r="H47" s="4">
-        <v>1.8839999999999999</v>
+      <c r="G47" s="5">
+        <v>1048</v>
+      </c>
+      <c r="H47" s="5">
+        <v>1884</v>
       </c>
       <c r="I47" s="4">
         <v>576</v>
@@ -2788,8 +2802,8 @@
       <c r="L47" s="4">
         <v>74</v>
       </c>
-      <c r="M47" s="5">
-        <v>7.3579999999999997</v>
+      <c r="M47" s="6">
+        <v>7358</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -2805,8 +2819,8 @@
       <c r="D48" s="4">
         <v>38</v>
       </c>
-      <c r="E48" s="4">
-        <v>1.589</v>
+      <c r="E48" s="5">
+        <v>1589</v>
       </c>
       <c r="F48" s="4">
         <v>756</v>
@@ -2814,8 +2828,8 @@
       <c r="G48" s="4">
         <v>842</v>
       </c>
-      <c r="H48" s="4">
-        <v>1.7290000000000001</v>
+      <c r="H48" s="5">
+        <v>1729</v>
       </c>
       <c r="I48" s="4">
         <v>661</v>
@@ -2829,8 +2843,8 @@
       <c r="L48" s="4">
         <v>77</v>
       </c>
-      <c r="M48" s="5">
-        <v>5.798</v>
+      <c r="M48" s="6">
+        <v>5798</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2844,8 +2858,8 @@
       <c r="D49" s="4">
         <v>234</v>
       </c>
-      <c r="E49" s="4">
-        <v>2.5289999999999999</v>
+      <c r="E49" s="5">
+        <v>2529</v>
       </c>
       <c r="F49" s="4">
         <v>465</v>
@@ -2853,8 +2867,8 @@
       <c r="G49" s="4">
         <v>706</v>
       </c>
-      <c r="H49" s="4">
-        <v>1.4219999999999999</v>
+      <c r="H49" s="5">
+        <v>1422</v>
       </c>
       <c r="I49" s="4">
         <v>337</v>
@@ -2868,8 +2882,8 @@
       <c r="L49" s="4">
         <v>85</v>
       </c>
-      <c r="M49" s="5">
-        <v>6.0179999999999998</v>
+      <c r="M49" s="6">
+        <v>6018</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2885,8 +2899,8 @@
       <c r="D50" s="4">
         <v>70</v>
       </c>
-      <c r="E50" s="4">
-        <v>1.6120000000000001</v>
+      <c r="E50" s="5">
+        <v>1612</v>
       </c>
       <c r="F50" s="4">
         <v>274</v>
@@ -2894,8 +2908,8 @@
       <c r="G50" s="4">
         <v>506</v>
       </c>
-      <c r="H50" s="4">
-        <v>1.1000000000000001</v>
+      <c r="H50" s="5">
+        <v>1100</v>
       </c>
       <c r="I50" s="4">
         <v>508</v>
@@ -2909,8 +2923,8 @@
       <c r="L50" s="4">
         <v>64</v>
       </c>
-      <c r="M50" s="5">
-        <v>4.2279999999999998</v>
+      <c r="M50" s="6">
+        <v>4228</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2924,8 +2938,8 @@
       <c r="D51" s="4">
         <v>311</v>
       </c>
-      <c r="E51" s="4">
-        <v>2.3450000000000002</v>
+      <c r="E51" s="5">
+        <v>2345</v>
       </c>
       <c r="F51" s="4">
         <v>195</v>
@@ -2948,8 +2962,8 @@
       <c r="L51" s="4">
         <v>76</v>
       </c>
-      <c r="M51" s="5">
-        <v>4.8319999999999999</v>
+      <c r="M51" s="6">
+        <v>4832</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2965,8 +2979,8 @@
       <c r="D52" s="4">
         <v>62</v>
       </c>
-      <c r="E52" s="4">
-        <v>1.2210000000000001</v>
+      <c r="E52" s="5">
+        <v>1221</v>
       </c>
       <c r="F52" s="4">
         <v>101</v>
@@ -2989,8 +3003,8 @@
       <c r="L52" s="4">
         <v>41</v>
       </c>
-      <c r="M52" s="5">
-        <v>2.8010000000000002</v>
+      <c r="M52" s="6">
+        <v>2801</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -3004,8 +3018,8 @@
       <c r="D53" s="4">
         <v>287</v>
       </c>
-      <c r="E53" s="4">
-        <v>1.738</v>
+      <c r="E53" s="5">
+        <v>1738</v>
       </c>
       <c r="F53" s="4">
         <v>50</v>
@@ -3028,8 +3042,8 @@
       <c r="L53" s="4">
         <v>72</v>
       </c>
-      <c r="M53" s="5">
-        <v>3.4649999999999999</v>
+      <c r="M53" s="6">
+        <v>3465</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -3045,8 +3059,8 @@
       <c r="D54" s="4">
         <v>147</v>
       </c>
-      <c r="E54" s="4">
-        <v>1.2569999999999999</v>
+      <c r="E54" s="5">
+        <v>1257</v>
       </c>
       <c r="F54" s="4">
         <v>41</v>
@@ -3069,8 +3083,8 @@
       <c r="L54" s="4">
         <v>65</v>
       </c>
-      <c r="M54" s="5">
-        <v>2.6880000000000002</v>
+      <c r="M54" s="6">
+        <v>2688</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -3084,8 +3098,8 @@
       <c r="D55" s="4">
         <v>609</v>
       </c>
-      <c r="E55" s="4">
-        <v>2.1150000000000002</v>
+      <c r="E55" s="5">
+        <v>2115</v>
       </c>
       <c r="F55" s="4">
         <v>19</v>
@@ -3108,54 +3122,54 @@
       <c r="L55" s="4">
         <v>104</v>
       </c>
-      <c r="M55" s="5">
-        <v>4.1189999999999998</v>
+      <c r="M55" s="6">
+        <v>4119</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="5">
-        <v>1.925</v>
-      </c>
-      <c r="D56" s="5">
-        <v>3.573</v>
-      </c>
-      <c r="E56" s="5">
-        <v>30.800999999999998</v>
-      </c>
-      <c r="F56" s="5">
-        <v>21.064</v>
-      </c>
-      <c r="G56" s="5">
-        <v>32.338999999999999</v>
-      </c>
-      <c r="H56" s="5">
-        <v>72.847999999999999</v>
-      </c>
-      <c r="I56" s="5">
-        <v>48.872</v>
-      </c>
-      <c r="J56" s="5">
-        <v>4.8250000000000002</v>
-      </c>
-      <c r="K56" s="5">
+      <c r="B56" s="8"/>
+      <c r="C56" s="6">
+        <v>1925</v>
+      </c>
+      <c r="D56" s="6">
+        <v>3573</v>
+      </c>
+      <c r="E56" s="6">
+        <v>30801</v>
+      </c>
+      <c r="F56" s="6">
+        <v>21064</v>
+      </c>
+      <c r="G56" s="6">
+        <v>32339</v>
+      </c>
+      <c r="H56" s="6">
+        <v>72848</v>
+      </c>
+      <c r="I56" s="6">
+        <v>48872</v>
+      </c>
+      <c r="J56" s="6">
+        <v>4825</v>
+      </c>
+      <c r="K56" s="7">
         <v>460</v>
       </c>
-      <c r="L56" s="5">
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="M56" s="5">
-        <v>218.43199999999999</v>
+      <c r="L56" s="6">
+        <v>1725</v>
+      </c>
+      <c r="M56" s="6">
+        <v>218432</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="8"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3209,11 +3223,11 @@
       <c r="F58" s="4">
         <v>3</v>
       </c>
-      <c r="G58" s="4">
-        <v>1.014</v>
-      </c>
-      <c r="H58" s="4">
-        <v>2.161</v>
+      <c r="G58" s="5">
+        <v>1014</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2161</v>
       </c>
       <c r="I58" s="4">
         <v>395</v>
@@ -3227,8 +3241,8 @@
       <c r="L58" s="4">
         <v>36</v>
       </c>
-      <c r="M58" s="5">
-        <v>3.6389999999999998</v>
+      <c r="M58" s="6">
+        <v>3639</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
@@ -3251,8 +3265,8 @@
       <c r="G59" s="4">
         <v>767</v>
       </c>
-      <c r="H59" s="4">
-        <v>1.845</v>
+      <c r="H59" s="5">
+        <v>1845</v>
       </c>
       <c r="I59" s="4">
         <v>600</v>
@@ -3266,8 +3280,8 @@
       <c r="L59" s="4">
         <v>9</v>
       </c>
-      <c r="M59" s="5">
-        <v>3.2709999999999999</v>
+      <c r="M59" s="6">
+        <v>3271</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
@@ -3307,8 +3321,8 @@
       <c r="L60" s="4">
         <v>12</v>
       </c>
-      <c r="M60" s="5">
-        <v>2.6560000000000001</v>
+      <c r="M60" s="6">
+        <v>2656</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -3346,8 +3360,8 @@
       <c r="L61" s="4">
         <v>14</v>
       </c>
-      <c r="M61" s="5">
-        <v>2.3809999999999998</v>
+      <c r="M61" s="6">
+        <v>2381</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -3372,8 +3386,8 @@
       <c r="G62" s="4">
         <v>401</v>
       </c>
-      <c r="H62" s="4">
-        <v>1.0429999999999999</v>
+      <c r="H62" s="5">
+        <v>1043</v>
       </c>
       <c r="I62" s="4">
         <v>588</v>
@@ -3387,8 +3401,8 @@
       <c r="L62" s="4">
         <v>14</v>
       </c>
-      <c r="M62" s="5">
-        <v>2.6909999999999998</v>
+      <c r="M62" s="6">
+        <v>2691</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -3426,8 +3440,8 @@
       <c r="L63" s="4">
         <v>41</v>
       </c>
-      <c r="M63" s="5">
-        <v>2.36</v>
+      <c r="M63" s="6">
+        <v>2360</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -3452,8 +3466,8 @@
       <c r="G64" s="4">
         <v>325</v>
       </c>
-      <c r="H64" s="4">
-        <v>1.105</v>
+      <c r="H64" s="5">
+        <v>1105</v>
       </c>
       <c r="I64" s="4">
         <v>407</v>
@@ -3467,8 +3481,8 @@
       <c r="L64" s="4">
         <v>20</v>
       </c>
-      <c r="M64" s="5">
-        <v>2.778</v>
+      <c r="M64" s="6">
+        <v>2778</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
@@ -3506,8 +3520,8 @@
       <c r="L65" s="4">
         <v>29</v>
       </c>
-      <c r="M65" s="5">
-        <v>2.4169999999999998</v>
+      <c r="M65" s="6">
+        <v>2417</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
@@ -3532,8 +3546,8 @@
       <c r="G66" s="4">
         <v>650</v>
       </c>
-      <c r="H66" s="4">
-        <v>1.0580000000000001</v>
+      <c r="H66" s="5">
+        <v>1058</v>
       </c>
       <c r="I66" s="4">
         <v>218</v>
@@ -3547,8 +3561,8 @@
       <c r="L66" s="4">
         <v>15</v>
       </c>
-      <c r="M66" s="5">
-        <v>2.9220000000000002</v>
+      <c r="M66" s="6">
+        <v>2922</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3586,8 +3600,8 @@
       <c r="L67" s="4">
         <v>15</v>
       </c>
-      <c r="M67" s="5">
-        <v>2.5009999999999999</v>
+      <c r="M67" s="6">
+        <v>2501</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
@@ -3627,8 +3641,8 @@
       <c r="L68" s="4">
         <v>14</v>
       </c>
-      <c r="M68" s="5">
-        <v>2.5150000000000001</v>
+      <c r="M68" s="6">
+        <v>2515</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -3666,8 +3680,8 @@
       <c r="L69" s="4">
         <v>10</v>
       </c>
-      <c r="M69" s="5">
-        <v>2.2440000000000002</v>
+      <c r="M69" s="6">
+        <v>2244</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
@@ -3707,8 +3721,8 @@
       <c r="L70" s="4">
         <v>15</v>
       </c>
-      <c r="M70" s="5">
-        <v>2.2320000000000002</v>
+      <c r="M70" s="6">
+        <v>2232</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3746,8 +3760,8 @@
       <c r="L71" s="4">
         <v>16</v>
       </c>
-      <c r="M71" s="5">
-        <v>2.0099999999999998</v>
+      <c r="M71" s="6">
+        <v>2010</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3787,8 +3801,8 @@
       <c r="L72" s="4">
         <v>14</v>
       </c>
-      <c r="M72" s="5">
-        <v>2.0390000000000001</v>
+      <c r="M72" s="6">
+        <v>2039</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
@@ -3826,8 +3840,8 @@
       <c r="L73" s="4">
         <v>17</v>
       </c>
-      <c r="M73" s="5">
-        <v>1.9319999999999999</v>
+      <c r="M73" s="6">
+        <v>1932</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
@@ -3867,8 +3881,8 @@
       <c r="L74" s="4">
         <v>18</v>
       </c>
-      <c r="M74" s="5">
-        <v>1.712</v>
+      <c r="M74" s="6">
+        <v>1712</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -3906,8 +3920,8 @@
       <c r="L75" s="4">
         <v>19</v>
       </c>
-      <c r="M75" s="5">
-        <v>1.6830000000000001</v>
+      <c r="M75" s="6">
+        <v>1683</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -3947,8 +3961,8 @@
       <c r="L76" s="4">
         <v>18</v>
       </c>
-      <c r="M76" s="5">
-        <v>1.2989999999999999</v>
+      <c r="M76" s="6">
+        <v>1299</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -3986,8 +4000,8 @@
       <c r="L77" s="4">
         <v>9</v>
       </c>
-      <c r="M77" s="5">
-        <v>1.381</v>
+      <c r="M77" s="6">
+        <v>1381</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
@@ -4027,7 +4041,7 @@
       <c r="L78" s="4">
         <v>6</v>
       </c>
-      <c r="M78" s="5">
+      <c r="M78" s="7">
         <v>849</v>
       </c>
     </row>
@@ -4066,8 +4080,8 @@
       <c r="L79" s="4">
         <v>22</v>
       </c>
-      <c r="M79" s="5">
-        <v>1.069</v>
+      <c r="M79" s="6">
+        <v>1069</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -4107,7 +4121,7 @@
       <c r="L80" s="4">
         <v>10</v>
       </c>
-      <c r="M80" s="5">
+      <c r="M80" s="7">
         <v>896</v>
       </c>
     </row>
@@ -4146,54 +4160,54 @@
       <c r="L81" s="4">
         <v>19</v>
       </c>
-      <c r="M81" s="5">
-        <v>1.379</v>
+      <c r="M81" s="6">
+        <v>1379</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5">
+      <c r="B82" s="8"/>
+      <c r="C82" s="7">
         <v>657</v>
       </c>
-      <c r="D82" s="5">
-        <v>1.4930000000000001</v>
-      </c>
-      <c r="E82" s="5">
-        <v>10.693</v>
-      </c>
-      <c r="F82" s="5">
-        <v>6.8630000000000004</v>
-      </c>
-      <c r="G82" s="5">
-        <v>9.7240000000000002</v>
-      </c>
-      <c r="H82" s="5">
-        <v>15.191000000000001</v>
-      </c>
-      <c r="I82" s="5">
-        <v>5.508</v>
-      </c>
-      <c r="J82" s="5">
+      <c r="D82" s="6">
+        <v>1493</v>
+      </c>
+      <c r="E82" s="6">
+        <v>10693</v>
+      </c>
+      <c r="F82" s="6">
+        <v>6863</v>
+      </c>
+      <c r="G82" s="6">
+        <v>9724</v>
+      </c>
+      <c r="H82" s="6">
+        <v>15191</v>
+      </c>
+      <c r="I82" s="6">
+        <v>5508</v>
+      </c>
+      <c r="J82" s="7">
         <v>282</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="7">
         <v>33</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="7">
         <v>412</v>
       </c>
-      <c r="M82" s="5">
-        <v>50.856000000000002</v>
+      <c r="M82" s="6">
+        <v>50856</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="8"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>2</v>
       </c>
@@ -4265,8 +4279,8 @@
       <c r="L84" s="4">
         <v>18</v>
       </c>
-      <c r="M84" s="5">
-        <v>1.2250000000000001</v>
+      <c r="M84" s="6">
+        <v>1225</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
@@ -4304,8 +4318,8 @@
       <c r="L85" s="4">
         <v>8</v>
       </c>
-      <c r="M85" s="5">
-        <v>1.155</v>
+      <c r="M85" s="6">
+        <v>1155</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -4345,8 +4359,8 @@
       <c r="L86" s="4">
         <v>6</v>
       </c>
-      <c r="M86" s="5">
-        <v>1.056</v>
+      <c r="M86" s="6">
+        <v>1056</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
@@ -4384,7 +4398,7 @@
       <c r="L87" s="4">
         <v>5</v>
       </c>
-      <c r="M87" s="5">
+      <c r="M87" s="7">
         <v>926</v>
       </c>
     </row>
@@ -4425,8 +4439,8 @@
       <c r="L88" s="4">
         <v>3</v>
       </c>
-      <c r="M88" s="5">
-        <v>1.0629999999999999</v>
+      <c r="M88" s="6">
+        <v>1063</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
@@ -4464,7 +4478,7 @@
       <c r="L89" s="4">
         <v>8</v>
       </c>
-      <c r="M89" s="5">
+      <c r="M89" s="7">
         <v>847</v>
       </c>
     </row>
@@ -4505,8 +4519,8 @@
       <c r="L90" s="4">
         <v>1</v>
       </c>
-      <c r="M90" s="5">
-        <v>1.0089999999999999</v>
+      <c r="M90" s="6">
+        <v>1009</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4544,7 +4558,7 @@
       <c r="L91" s="4">
         <v>6</v>
       </c>
-      <c r="M91" s="5">
+      <c r="M91" s="7">
         <v>832</v>
       </c>
     </row>
@@ -4585,8 +4599,8 @@
       <c r="L92" s="4">
         <v>4</v>
       </c>
-      <c r="M92" s="5">
-        <v>1.0469999999999999</v>
+      <c r="M92" s="6">
+        <v>1047</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
@@ -4624,7 +4638,7 @@
       <c r="L93" s="4">
         <v>5</v>
       </c>
-      <c r="M93" s="5">
+      <c r="M93" s="7">
         <v>850</v>
       </c>
     </row>
@@ -4665,7 +4679,7 @@
       <c r="L94" s="4">
         <v>2</v>
       </c>
-      <c r="M94" s="5">
+      <c r="M94" s="7">
         <v>961</v>
       </c>
     </row>
@@ -4704,7 +4718,7 @@
       <c r="L95" s="4">
         <v>5</v>
       </c>
-      <c r="M95" s="5">
+      <c r="M95" s="7">
         <v>883</v>
       </c>
     </row>
@@ -4745,8 +4759,8 @@
       <c r="L96" s="4">
         <v>3</v>
       </c>
-      <c r="M96" s="5">
-        <v>1.0740000000000001</v>
+      <c r="M96" s="6">
+        <v>1074</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
@@ -4784,8 +4798,8 @@
       <c r="L97" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M97" s="5">
-        <v>1.0349999999999999</v>
+      <c r="M97" s="6">
+        <v>1035</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4825,8 +4839,8 @@
       <c r="L98" s="4">
         <v>4</v>
       </c>
-      <c r="M98" s="5">
-        <v>1.1859999999999999</v>
+      <c r="M98" s="6">
+        <v>1186</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4864,8 +4878,8 @@
       <c r="L99" s="4">
         <v>3</v>
       </c>
-      <c r="M99" s="5">
-        <v>1.1850000000000001</v>
+      <c r="M99" s="6">
+        <v>1185</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4905,8 +4919,8 @@
       <c r="L100" s="4">
         <v>3</v>
       </c>
-      <c r="M100" s="5">
-        <v>1.218</v>
+      <c r="M100" s="6">
+        <v>1218</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4944,8 +4958,8 @@
       <c r="L101" s="4">
         <v>3</v>
       </c>
-      <c r="M101" s="5">
-        <v>1.216</v>
+      <c r="M101" s="6">
+        <v>1216</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4985,7 +4999,7 @@
       <c r="L102" s="4">
         <v>3</v>
       </c>
-      <c r="M102" s="5">
+      <c r="M102" s="7">
         <v>980</v>
       </c>
     </row>
@@ -5024,8 +5038,8 @@
       <c r="L103" s="4">
         <v>3</v>
       </c>
-      <c r="M103" s="5">
-        <v>1.087</v>
+      <c r="M103" s="6">
+        <v>1087</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -5065,7 +5079,7 @@
       <c r="L104" s="4">
         <v>8</v>
       </c>
-      <c r="M104" s="5">
+      <c r="M104" s="7">
         <v>744</v>
       </c>
     </row>
@@ -5104,7 +5118,7 @@
       <c r="L105" s="4">
         <v>4</v>
       </c>
-      <c r="M105" s="5">
+      <c r="M105" s="7">
         <v>863</v>
       </c>
     </row>
@@ -5145,7 +5159,7 @@
       <c r="L106" s="4">
         <v>8</v>
       </c>
-      <c r="M106" s="5">
+      <c r="M106" s="7">
         <v>908</v>
       </c>
     </row>
@@ -5184,54 +5198,54 @@
       <c r="L107" s="4">
         <v>4</v>
       </c>
-      <c r="M107" s="5">
-        <v>1.2949999999999999</v>
+      <c r="M107" s="6">
+        <v>1295</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="5">
+      <c r="B108" s="8"/>
+      <c r="C108" s="7">
         <v>552</v>
       </c>
-      <c r="D108" s="5">
-        <v>1.204</v>
-      </c>
-      <c r="E108" s="5">
-        <v>8.3819999999999997</v>
-      </c>
-      <c r="F108" s="5">
-        <v>2.8420000000000001</v>
-      </c>
-      <c r="G108" s="5">
-        <v>3.4729999999999999</v>
-      </c>
-      <c r="H108" s="5">
-        <v>5.2649999999999997</v>
-      </c>
-      <c r="I108" s="5">
-        <v>2.5840000000000001</v>
-      </c>
-      <c r="J108" s="5">
+      <c r="D108" s="6">
+        <v>1204</v>
+      </c>
+      <c r="E108" s="6">
+        <v>8382</v>
+      </c>
+      <c r="F108" s="6">
+        <v>2842</v>
+      </c>
+      <c r="G108" s="6">
+        <v>3473</v>
+      </c>
+      <c r="H108" s="6">
+        <v>5265</v>
+      </c>
+      <c r="I108" s="6">
+        <v>2584</v>
+      </c>
+      <c r="J108" s="7">
         <v>207</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="7">
         <v>19</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="7">
         <v>117</v>
       </c>
-      <c r="M108" s="5">
-        <v>24.645</v>
+      <c r="M108" s="6">
+        <v>24645</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B109" s="8"/>
+      <c r="B109" s="9"/>
       <c r="C109" s="2" t="s">
         <v>2</v>
       </c>
@@ -5285,11 +5299,11 @@
       <c r="F110" s="4">
         <v>4</v>
       </c>
-      <c r="G110" s="4">
-        <v>2.5529999999999999</v>
-      </c>
-      <c r="H110" s="4">
-        <v>4.6710000000000003</v>
+      <c r="G110" s="5">
+        <v>2553</v>
+      </c>
+      <c r="H110" s="5">
+        <v>4671</v>
       </c>
       <c r="I110" s="4">
         <v>680</v>
@@ -5303,8 +5317,8 @@
       <c r="L110" s="4">
         <v>77</v>
       </c>
-      <c r="M110" s="5">
-        <v>8.0510000000000002</v>
+      <c r="M110" s="6">
+        <v>8051</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -5324,14 +5338,14 @@
       <c r="F111" s="4">
         <v>7</v>
       </c>
-      <c r="G111" s="4">
-        <v>1.954</v>
-      </c>
-      <c r="H111" s="4">
-        <v>4.2160000000000002</v>
-      </c>
-      <c r="I111" s="4">
-        <v>1.1890000000000001</v>
+      <c r="G111" s="5">
+        <v>1954</v>
+      </c>
+      <c r="H111" s="5">
+        <v>4216</v>
+      </c>
+      <c r="I111" s="5">
+        <v>1189</v>
       </c>
       <c r="J111" s="4">
         <v>4</v>
@@ -5342,8 +5356,8 @@
       <c r="L111" s="4">
         <v>8</v>
       </c>
-      <c r="M111" s="5">
-        <v>7.4969999999999999</v>
+      <c r="M111" s="6">
+        <v>7497</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -5365,14 +5379,14 @@
       <c r="F112" s="4">
         <v>91</v>
       </c>
-      <c r="G112" s="4">
-        <v>2.1269999999999998</v>
-      </c>
-      <c r="H112" s="4">
-        <v>2.383</v>
-      </c>
-      <c r="I112" s="4">
-        <v>1.5429999999999999</v>
+      <c r="G112" s="5">
+        <v>2127</v>
+      </c>
+      <c r="H112" s="5">
+        <v>2383</v>
+      </c>
+      <c r="I112" s="5">
+        <v>1543</v>
       </c>
       <c r="J112" s="4">
         <v>77</v>
@@ -5383,8 +5397,8 @@
       <c r="L112" s="4">
         <v>16</v>
       </c>
-      <c r="M112" s="5">
-        <v>6.319</v>
+      <c r="M112" s="6">
+        <v>6319</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5404,14 +5418,14 @@
       <c r="F113" s="4">
         <v>83</v>
       </c>
-      <c r="G113" s="4">
-        <v>1.7629999999999999</v>
-      </c>
-      <c r="H113" s="4">
-        <v>1.6779999999999999</v>
-      </c>
-      <c r="I113" s="4">
-        <v>1.8089999999999999</v>
+      <c r="G113" s="5">
+        <v>1763</v>
+      </c>
+      <c r="H113" s="5">
+        <v>1678</v>
+      </c>
+      <c r="I113" s="5">
+        <v>1809</v>
       </c>
       <c r="J113" s="4">
         <v>82</v>
@@ -5422,8 +5436,8 @@
       <c r="L113" s="4">
         <v>31</v>
       </c>
-      <c r="M113" s="5">
-        <v>5.79</v>
+      <c r="M113" s="6">
+        <v>5790</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5442,17 +5456,17 @@
       <c r="E114" s="4">
         <v>59</v>
       </c>
-      <c r="F114" s="4">
-        <v>1.294</v>
+      <c r="F114" s="5">
+        <v>1294</v>
       </c>
       <c r="G114" s="4">
         <v>987</v>
       </c>
-      <c r="H114" s="4">
-        <v>2.5139999999999998</v>
-      </c>
-      <c r="I114" s="4">
-        <v>1.163</v>
+      <c r="H114" s="5">
+        <v>2514</v>
+      </c>
+      <c r="I114" s="5">
+        <v>1163</v>
       </c>
       <c r="J114" s="4">
         <v>105</v>
@@ -5463,8 +5477,8 @@
       <c r="L114" s="4">
         <v>19</v>
       </c>
-      <c r="M114" s="5">
-        <v>6.2140000000000004</v>
+      <c r="M114" s="6">
+        <v>6214</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5481,17 +5495,17 @@
       <c r="E115" s="4">
         <v>207</v>
       </c>
-      <c r="F115" s="4">
-        <v>1.403</v>
+      <c r="F115" s="5">
+        <v>1403</v>
       </c>
       <c r="G115" s="4">
         <v>768</v>
       </c>
-      <c r="H115" s="4">
-        <v>1.7190000000000001</v>
-      </c>
-      <c r="I115" s="4">
-        <v>1.2989999999999999</v>
+      <c r="H115" s="5">
+        <v>1719</v>
+      </c>
+      <c r="I115" s="5">
+        <v>1299</v>
       </c>
       <c r="J115" s="4">
         <v>99</v>
@@ -5502,8 +5516,8 @@
       <c r="L115" s="4">
         <v>38</v>
       </c>
-      <c r="M115" s="5">
-        <v>5.8010000000000002</v>
+      <c r="M115" s="6">
+        <v>5801</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5522,14 +5536,14 @@
       <c r="E116" s="4">
         <v>463</v>
       </c>
-      <c r="F116" s="4">
-        <v>1.3939999999999999</v>
+      <c r="F116" s="5">
+        <v>1394</v>
       </c>
       <c r="G116" s="4">
         <v>809</v>
       </c>
-      <c r="H116" s="4">
-        <v>2.7189999999999999</v>
+      <c r="H116" s="5">
+        <v>2719</v>
       </c>
       <c r="I116" s="4">
         <v>868</v>
@@ -5543,8 +5557,8 @@
       <c r="L116" s="4">
         <v>28</v>
       </c>
-      <c r="M116" s="5">
-        <v>6.399</v>
+      <c r="M116" s="6">
+        <v>6399</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5558,17 +5572,17 @@
       <c r="D117" s="4">
         <v>99</v>
       </c>
-      <c r="E117" s="4">
-        <v>1.2310000000000001</v>
-      </c>
-      <c r="F117" s="4">
-        <v>1.36</v>
+      <c r="E117" s="5">
+        <v>1231</v>
+      </c>
+      <c r="F117" s="5">
+        <v>1360</v>
       </c>
       <c r="G117" s="4">
         <v>765</v>
       </c>
-      <c r="H117" s="4">
-        <v>1.6439999999999999</v>
+      <c r="H117" s="5">
+        <v>1644</v>
       </c>
       <c r="I117" s="4">
         <v>729</v>
@@ -5582,8 +5596,8 @@
       <c r="L117" s="4">
         <v>32</v>
       </c>
-      <c r="M117" s="5">
-        <v>5.9909999999999997</v>
+      <c r="M117" s="6">
+        <v>5991</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5602,14 +5616,14 @@
       <c r="E118" s="4">
         <v>700</v>
       </c>
-      <c r="F118" s="4">
-        <v>1.2909999999999999</v>
-      </c>
-      <c r="G118" s="4">
-        <v>1.3460000000000001</v>
-      </c>
-      <c r="H118" s="4">
-        <v>2.6880000000000002</v>
+      <c r="F118" s="5">
+        <v>1291</v>
+      </c>
+      <c r="G118" s="5">
+        <v>1346</v>
+      </c>
+      <c r="H118" s="5">
+        <v>2688</v>
       </c>
       <c r="I118" s="4">
         <v>579</v>
@@ -5623,8 +5637,8 @@
       <c r="L118" s="4">
         <v>25</v>
       </c>
-      <c r="M118" s="5">
-        <v>6.7160000000000002</v>
+      <c r="M118" s="6">
+        <v>6716</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5638,17 +5652,17 @@
       <c r="D119" s="4">
         <v>117</v>
       </c>
-      <c r="E119" s="4">
-        <v>1.7350000000000001</v>
-      </c>
-      <c r="F119" s="4">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="G119" s="4">
-        <v>1.0640000000000001</v>
-      </c>
-      <c r="H119" s="4">
-        <v>1.44</v>
+      <c r="E119" s="5">
+        <v>1735</v>
+      </c>
+      <c r="F119" s="5">
+        <v>1120</v>
+      </c>
+      <c r="G119" s="5">
+        <v>1064</v>
+      </c>
+      <c r="H119" s="5">
+        <v>1440</v>
       </c>
       <c r="I119" s="4">
         <v>450</v>
@@ -5662,8 +5676,8 @@
       <c r="L119" s="4">
         <v>19</v>
       </c>
-      <c r="M119" s="5">
-        <v>6.06</v>
+      <c r="M119" s="6">
+        <v>6060</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5682,14 +5696,14 @@
       <c r="E120" s="4">
         <v>694</v>
       </c>
-      <c r="F120" s="4">
-        <v>1.202</v>
-      </c>
-      <c r="G120" s="4">
-        <v>1.002</v>
-      </c>
-      <c r="H120" s="4">
-        <v>1.8220000000000001</v>
+      <c r="F120" s="5">
+        <v>1202</v>
+      </c>
+      <c r="G120" s="5">
+        <v>1002</v>
+      </c>
+      <c r="H120" s="5">
+        <v>1822</v>
       </c>
       <c r="I120" s="4">
         <v>364</v>
@@ -5703,8 +5717,8 @@
       <c r="L120" s="4">
         <v>19</v>
       </c>
-      <c r="M120" s="5">
-        <v>5.1509999999999998</v>
+      <c r="M120" s="6">
+        <v>5151</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5718,11 +5732,11 @@
       <c r="D121" s="4">
         <v>87</v>
       </c>
-      <c r="E121" s="4">
-        <v>1.534</v>
-      </c>
-      <c r="F121" s="4">
-        <v>1.0289999999999999</v>
+      <c r="E121" s="5">
+        <v>1534</v>
+      </c>
+      <c r="F121" s="5">
+        <v>1029</v>
       </c>
       <c r="G121" s="4">
         <v>772</v>
@@ -5742,8 +5756,8 @@
       <c r="L121" s="4">
         <v>17</v>
       </c>
-      <c r="M121" s="5">
-        <v>4.5970000000000004</v>
+      <c r="M121" s="6">
+        <v>4597</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5762,8 +5776,8 @@
       <c r="E122" s="4">
         <v>634</v>
       </c>
-      <c r="F122" s="4">
-        <v>1.198</v>
+      <c r="F122" s="5">
+        <v>1198</v>
       </c>
       <c r="G122" s="4">
         <v>807</v>
@@ -5783,8 +5797,8 @@
       <c r="L122" s="4">
         <v>9</v>
       </c>
-      <c r="M122" s="5">
-        <v>3.855</v>
+      <c r="M122" s="6">
+        <v>3855</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5798,8 +5812,8 @@
       <c r="D123" s="4">
         <v>116</v>
       </c>
-      <c r="E123" s="4">
-        <v>1.395</v>
+      <c r="E123" s="5">
+        <v>1395</v>
       </c>
       <c r="F123" s="4">
         <v>743</v>
@@ -5822,8 +5836,8 @@
       <c r="L123" s="4">
         <v>17</v>
       </c>
-      <c r="M123" s="5">
-        <v>3.4460000000000002</v>
+      <c r="M123" s="6">
+        <v>3446</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5863,8 +5877,8 @@
       <c r="L124" s="4">
         <v>12</v>
       </c>
-      <c r="M124" s="5">
-        <v>2.9340000000000002</v>
+      <c r="M124" s="6">
+        <v>2934</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5878,8 +5892,8 @@
       <c r="D125" s="4">
         <v>145</v>
       </c>
-      <c r="E125" s="4">
-        <v>1.321</v>
+      <c r="E125" s="5">
+        <v>1321</v>
       </c>
       <c r="F125" s="4">
         <v>446</v>
@@ -5902,8 +5916,8 @@
       <c r="L125" s="4">
         <v>21</v>
       </c>
-      <c r="M125" s="5">
-        <v>2.7309999999999999</v>
+      <c r="M125" s="6">
+        <v>2731</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5943,8 +5957,8 @@
       <c r="L126" s="4">
         <v>16</v>
       </c>
-      <c r="M126" s="5">
-        <v>2.1480000000000001</v>
+      <c r="M126" s="6">
+        <v>2148</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5958,8 +5972,8 @@
       <c r="D127" s="4">
         <v>153</v>
       </c>
-      <c r="E127" s="4">
-        <v>1.095</v>
+      <c r="E127" s="5">
+        <v>1095</v>
       </c>
       <c r="F127" s="4">
         <v>215</v>
@@ -5982,8 +5996,8 @@
       <c r="L127" s="4">
         <v>18</v>
       </c>
-      <c r="M127" s="5">
-        <v>2.0630000000000002</v>
+      <c r="M127" s="6">
+        <v>2063</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -6023,8 +6037,8 @@
       <c r="L128" s="4">
         <v>14</v>
       </c>
-      <c r="M128" s="5">
-        <v>1.4379999999999999</v>
+      <c r="M128" s="6">
+        <v>1438</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -6062,8 +6076,8 @@
       <c r="L129" s="4">
         <v>18</v>
       </c>
-      <c r="M129" s="5">
-        <v>1.5620000000000001</v>
+      <c r="M129" s="6">
+        <v>1562</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -6103,7 +6117,7 @@
       <c r="L130" s="4">
         <v>4</v>
       </c>
-      <c r="M130" s="5">
+      <c r="M130" s="7">
         <v>873</v>
       </c>
     </row>
@@ -6142,8 +6156,8 @@
       <c r="L131" s="4">
         <v>13</v>
       </c>
-      <c r="M131" s="5">
-        <v>1.0289999999999999</v>
+      <c r="M131" s="6">
+        <v>1029</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -6183,7 +6197,7 @@
       <c r="L132" s="4">
         <v>9</v>
       </c>
-      <c r="M132" s="5">
+      <c r="M132" s="7">
         <v>711</v>
       </c>
     </row>
@@ -6222,54 +6236,54 @@
       <c r="L133" s="4">
         <v>23</v>
       </c>
-      <c r="M133" s="5">
-        <v>1.2410000000000001</v>
+      <c r="M133" s="6">
+        <v>1241</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="5">
-        <v>1.5169999999999999</v>
-      </c>
-      <c r="D134" s="5">
-        <v>2.0880000000000001</v>
-      </c>
-      <c r="E134" s="5">
-        <v>16.372</v>
-      </c>
-      <c r="F134" s="5">
-        <v>14.488</v>
-      </c>
-      <c r="G134" s="5">
-        <v>19.466000000000001</v>
-      </c>
-      <c r="H134" s="5">
-        <v>31.791</v>
-      </c>
-      <c r="I134" s="5">
-        <v>11.632</v>
-      </c>
-      <c r="J134" s="5">
+      <c r="B134" s="8"/>
+      <c r="C134" s="6">
+        <v>1517</v>
+      </c>
+      <c r="D134" s="6">
+        <v>2088</v>
+      </c>
+      <c r="E134" s="6">
+        <v>16372</v>
+      </c>
+      <c r="F134" s="6">
+        <v>14488</v>
+      </c>
+      <c r="G134" s="6">
+        <v>19466</v>
+      </c>
+      <c r="H134" s="6">
+        <v>31791</v>
+      </c>
+      <c r="I134" s="6">
+        <v>11632</v>
+      </c>
+      <c r="J134" s="7">
         <v>713</v>
       </c>
-      <c r="K134" s="5">
+      <c r="K134" s="7">
         <v>47</v>
       </c>
-      <c r="L134" s="5">
+      <c r="L134" s="7">
         <v>503</v>
       </c>
-      <c r="M134" s="5">
-        <v>98.617000000000004</v>
+      <c r="M134" s="6">
+        <v>98617</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B135" s="8"/>
+      <c r="B135" s="9"/>
       <c r="C135" s="2" t="s">
         <v>2</v>
       </c>
@@ -6326,8 +6340,8 @@
       <c r="G136" s="4">
         <v>476</v>
       </c>
-      <c r="H136" s="4">
-        <v>1.1950000000000001</v>
+      <c r="H136" s="5">
+        <v>1195</v>
       </c>
       <c r="I136" s="4">
         <v>298</v>
@@ -6341,8 +6355,8 @@
       <c r="L136" s="4">
         <v>11</v>
       </c>
-      <c r="M136" s="5">
-        <v>2.0270000000000001</v>
+      <c r="M136" s="6">
+        <v>2027</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -6380,8 +6394,8 @@
       <c r="L137" s="4">
         <v>5</v>
       </c>
-      <c r="M137" s="5">
-        <v>1.9179999999999999</v>
+      <c r="M137" s="6">
+        <v>1918</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -6421,8 +6435,8 @@
       <c r="L138" s="4">
         <v>5</v>
       </c>
-      <c r="M138" s="5">
-        <v>1.74</v>
+      <c r="M138" s="6">
+        <v>1740</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -6460,8 +6474,8 @@
       <c r="L139" s="4">
         <v>5</v>
       </c>
-      <c r="M139" s="5">
-        <v>1.5109999999999999</v>
+      <c r="M139" s="6">
+        <v>1511</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -6501,8 +6515,8 @@
       <c r="L140" s="4">
         <v>6</v>
       </c>
-      <c r="M140" s="5">
-        <v>1.786</v>
+      <c r="M140" s="6">
+        <v>1786</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6540,8 +6554,8 @@
       <c r="L141" s="4">
         <v>4</v>
       </c>
-      <c r="M141" s="5">
-        <v>1.506</v>
+      <c r="M141" s="6">
+        <v>1506</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6581,8 +6595,8 @@
       <c r="L142" s="4">
         <v>3</v>
       </c>
-      <c r="M142" s="5">
-        <v>1.671</v>
+      <c r="M142" s="6">
+        <v>1671</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6620,8 +6634,8 @@
       <c r="L143" s="4">
         <v>6</v>
       </c>
-      <c r="M143" s="5">
-        <v>1.49</v>
+      <c r="M143" s="6">
+        <v>1490</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6661,8 +6675,8 @@
       <c r="L144" s="4">
         <v>9</v>
       </c>
-      <c r="M144" s="5">
-        <v>1.7270000000000001</v>
+      <c r="M144" s="6">
+        <v>1727</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6700,8 +6714,8 @@
       <c r="L145" s="4">
         <v>12</v>
       </c>
-      <c r="M145" s="5">
-        <v>1.5389999999999999</v>
+      <c r="M145" s="6">
+        <v>1539</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6741,8 +6755,8 @@
       <c r="L146" s="4">
         <v>7</v>
       </c>
-      <c r="M146" s="5">
-        <v>1.66</v>
+      <c r="M146" s="6">
+        <v>1660</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6780,8 +6794,8 @@
       <c r="L147" s="4">
         <v>8</v>
       </c>
-      <c r="M147" s="5">
-        <v>1.569</v>
+      <c r="M147" s="6">
+        <v>1569</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6821,8 +6835,8 @@
       <c r="L148" s="4">
         <v>8</v>
       </c>
-      <c r="M148" s="5">
-        <v>1.837</v>
+      <c r="M148" s="6">
+        <v>1837</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6860,8 +6874,8 @@
       <c r="L149" s="4">
         <v>9</v>
       </c>
-      <c r="M149" s="5">
-        <v>1.8120000000000001</v>
+      <c r="M149" s="6">
+        <v>1812</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6901,8 +6915,8 @@
       <c r="L150" s="4">
         <v>18</v>
       </c>
-      <c r="M150" s="5">
-        <v>1.909</v>
+      <c r="M150" s="6">
+        <v>1909</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6916,8 +6930,8 @@
       <c r="D151" s="4">
         <v>61</v>
       </c>
-      <c r="E151" s="4">
-        <v>1.266</v>
+      <c r="E151" s="5">
+        <v>1266</v>
       </c>
       <c r="F151" s="4">
         <v>141</v>
@@ -6940,8 +6954,8 @@
       <c r="L151" s="4">
         <v>10</v>
       </c>
-      <c r="M151" s="5">
-        <v>1.956</v>
+      <c r="M151" s="6">
+        <v>1956</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6957,8 +6971,8 @@
       <c r="D152" s="4">
         <v>21</v>
       </c>
-      <c r="E152" s="4">
-        <v>1.1419999999999999</v>
+      <c r="E152" s="5">
+        <v>1142</v>
       </c>
       <c r="F152" s="4">
         <v>199</v>
@@ -6981,8 +6995,8 @@
       <c r="L152" s="4">
         <v>12</v>
       </c>
-      <c r="M152" s="5">
-        <v>1.964</v>
+      <c r="M152" s="6">
+        <v>1964</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6996,8 +7010,8 @@
       <c r="D153" s="4">
         <v>107</v>
       </c>
-      <c r="E153" s="4">
-        <v>1.5980000000000001</v>
+      <c r="E153" s="5">
+        <v>1598</v>
       </c>
       <c r="F153" s="4">
         <v>79</v>
@@ -7020,8 +7034,8 @@
       <c r="L153" s="4">
         <v>19</v>
       </c>
-      <c r="M153" s="5">
-        <v>2.0939999999999999</v>
+      <c r="M153" s="6">
+        <v>2094</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -7037,8 +7051,8 @@
       <c r="D154" s="4">
         <v>43</v>
       </c>
-      <c r="E154" s="4">
-        <v>1.175</v>
+      <c r="E154" s="5">
+        <v>1175</v>
       </c>
       <c r="F154" s="4">
         <v>79</v>
@@ -7061,8 +7075,8 @@
       <c r="L154" s="4">
         <v>12</v>
       </c>
-      <c r="M154" s="5">
-        <v>1.738</v>
+      <c r="M154" s="6">
+        <v>1738</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -7076,8 +7090,8 @@
       <c r="D155" s="4">
         <v>139</v>
       </c>
-      <c r="E155" s="4">
-        <v>1.379</v>
+      <c r="E155" s="5">
+        <v>1379</v>
       </c>
       <c r="F155" s="4">
         <v>36</v>
@@ -7100,8 +7114,8 @@
       <c r="L155" s="4">
         <v>10</v>
       </c>
-      <c r="M155" s="5">
-        <v>1.764</v>
+      <c r="M155" s="6">
+        <v>1764</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -7141,8 +7155,8 @@
       <c r="L156" s="4">
         <v>7</v>
       </c>
-      <c r="M156" s="5">
-        <v>1.27</v>
+      <c r="M156" s="6">
+        <v>1270</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -7156,8 +7170,8 @@
       <c r="D157" s="4">
         <v>215</v>
       </c>
-      <c r="E157" s="4">
-        <v>1.085</v>
+      <c r="E157" s="5">
+        <v>1085</v>
       </c>
       <c r="F157" s="4">
         <v>9</v>
@@ -7180,8 +7194,8 @@
       <c r="L157" s="4">
         <v>12</v>
       </c>
-      <c r="M157" s="5">
-        <v>1.496</v>
+      <c r="M157" s="6">
+        <v>1496</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -7197,8 +7211,8 @@
       <c r="D158" s="4">
         <v>247</v>
       </c>
-      <c r="E158" s="4">
-        <v>1.1299999999999999</v>
+      <c r="E158" s="5">
+        <v>1130</v>
       </c>
       <c r="F158" s="4">
         <v>13</v>
@@ -7221,8 +7235,8 @@
       <c r="L158" s="4">
         <v>18</v>
       </c>
-      <c r="M158" s="5">
-        <v>1.6120000000000001</v>
+      <c r="M158" s="6">
+        <v>1612</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -7236,8 +7250,8 @@
       <c r="D159" s="4">
         <v>580</v>
       </c>
-      <c r="E159" s="4">
-        <v>1.214</v>
+      <c r="E159" s="5">
+        <v>1214</v>
       </c>
       <c r="F159" s="4">
         <v>5</v>
@@ -7260,54 +7274,54 @@
       <c r="L159" s="4">
         <v>19</v>
       </c>
-      <c r="M159" s="5">
-        <v>2.1539999999999999</v>
+      <c r="M159" s="6">
+        <v>2154</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="5">
+      <c r="B160" s="8"/>
+      <c r="C160" s="7">
         <v>671</v>
       </c>
-      <c r="D160" s="5">
-        <v>1.792</v>
-      </c>
-      <c r="E160" s="5">
-        <v>15.375999999999999</v>
-      </c>
-      <c r="F160" s="5">
-        <v>3.3069999999999999</v>
-      </c>
-      <c r="G160" s="5">
-        <v>5.6079999999999997</v>
-      </c>
-      <c r="H160" s="5">
-        <v>8.7870000000000008</v>
-      </c>
-      <c r="I160" s="5">
-        <v>5.4809999999999999</v>
-      </c>
-      <c r="J160" s="5">
+      <c r="D160" s="6">
+        <v>1792</v>
+      </c>
+      <c r="E160" s="6">
+        <v>15376</v>
+      </c>
+      <c r="F160" s="6">
+        <v>3307</v>
+      </c>
+      <c r="G160" s="6">
+        <v>5608</v>
+      </c>
+      <c r="H160" s="6">
+        <v>8787</v>
+      </c>
+      <c r="I160" s="6">
+        <v>5481</v>
+      </c>
+      <c r="J160" s="7">
         <v>462</v>
       </c>
-      <c r="K160" s="5">
+      <c r="K160" s="7">
         <v>31</v>
       </c>
-      <c r="L160" s="5">
+      <c r="L160" s="7">
         <v>235</v>
       </c>
-      <c r="M160" s="5">
-        <v>41.75</v>
+      <c r="M160" s="6">
+        <v>41750</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B161" s="8"/>
+      <c r="B161" s="9"/>
       <c r="C161" s="2" t="s">
         <v>2</v>
       </c>
@@ -7379,8 +7393,8 @@
       <c r="L162" s="4">
         <v>16</v>
       </c>
-      <c r="M162" s="5">
-        <v>1.3220000000000001</v>
+      <c r="M162" s="6">
+        <v>1322</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -7418,8 +7432,8 @@
       <c r="L163" s="4">
         <v>7</v>
       </c>
-      <c r="M163" s="5">
-        <v>1.17</v>
+      <c r="M163" s="6">
+        <v>1170</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -7459,8 +7473,8 @@
       <c r="L164" s="4">
         <v>7</v>
       </c>
-      <c r="M164" s="5">
-        <v>1.107</v>
+      <c r="M164" s="6">
+        <v>1107</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -7498,7 +7512,7 @@
       <c r="L165" s="4">
         <v>11</v>
       </c>
-      <c r="M165" s="5">
+      <c r="M165" s="7">
         <v>908</v>
       </c>
     </row>
@@ -7539,8 +7553,8 @@
       <c r="L166" s="4">
         <v>9</v>
       </c>
-      <c r="M166" s="5">
-        <v>1.0389999999999999</v>
+      <c r="M166" s="6">
+        <v>1039</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -7578,7 +7592,7 @@
       <c r="L167" s="4">
         <v>15</v>
       </c>
-      <c r="M167" s="5">
+      <c r="M167" s="7">
         <v>885</v>
       </c>
     </row>
@@ -7619,8 +7633,8 @@
       <c r="L168" s="4">
         <v>20</v>
       </c>
-      <c r="M168" s="5">
-        <v>1.038</v>
+      <c r="M168" s="6">
+        <v>1038</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -7658,7 +7672,7 @@
       <c r="L169" s="4">
         <v>6</v>
       </c>
-      <c r="M169" s="5">
+      <c r="M169" s="7">
         <v>876</v>
       </c>
     </row>
@@ -7699,8 +7713,8 @@
       <c r="L170" s="4">
         <v>17</v>
       </c>
-      <c r="M170" s="5">
-        <v>1.0620000000000001</v>
+      <c r="M170" s="6">
+        <v>1062</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7738,7 +7752,7 @@
       <c r="L171" s="4">
         <v>9</v>
       </c>
-      <c r="M171" s="5">
+      <c r="M171" s="7">
         <v>894</v>
       </c>
     </row>
@@ -7779,7 +7793,7 @@
       <c r="L172" s="4">
         <v>19</v>
       </c>
-      <c r="M172" s="5">
+      <c r="M172" s="7">
         <v>930</v>
       </c>
     </row>
@@ -7818,7 +7832,7 @@
       <c r="L173" s="4">
         <v>13</v>
       </c>
-      <c r="M173" s="5">
+      <c r="M173" s="7">
         <v>879</v>
       </c>
     </row>
@@ -7859,7 +7873,7 @@
       <c r="L174" s="4">
         <v>18</v>
       </c>
-      <c r="M174" s="5">
+      <c r="M174" s="7">
         <v>978</v>
       </c>
     </row>
@@ -7898,7 +7912,7 @@
       <c r="L175" s="4">
         <v>19</v>
       </c>
-      <c r="M175" s="5">
+      <c r="M175" s="7">
         <v>952</v>
       </c>
     </row>
@@ -7939,8 +7953,8 @@
       <c r="L176" s="4">
         <v>18</v>
       </c>
-      <c r="M176" s="5">
-        <v>1.024</v>
+      <c r="M176" s="6">
+        <v>1024</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
@@ -7978,8 +7992,8 @@
       <c r="L177" s="4">
         <v>26</v>
       </c>
-      <c r="M177" s="5">
-        <v>1.052</v>
+      <c r="M177" s="6">
+        <v>1052</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -8019,8 +8033,8 @@
       <c r="L178" s="4">
         <v>17</v>
       </c>
-      <c r="M178" s="5">
-        <v>1.121</v>
+      <c r="M178" s="6">
+        <v>1121</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
@@ -8058,8 +8072,8 @@
       <c r="L179" s="4">
         <v>27</v>
       </c>
-      <c r="M179" s="5">
-        <v>1.169</v>
+      <c r="M179" s="6">
+        <v>1169</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
@@ -8099,8 +8113,8 @@
       <c r="L180" s="4">
         <v>30</v>
       </c>
-      <c r="M180" s="5">
-        <v>1.095</v>
+      <c r="M180" s="6">
+        <v>1095</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
@@ -8138,8 +8152,8 @@
       <c r="L181" s="4">
         <v>17</v>
       </c>
-      <c r="M181" s="5">
-        <v>1.0820000000000001</v>
+      <c r="M181" s="6">
+        <v>1082</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
@@ -8179,7 +8193,7 @@
       <c r="L182" s="4">
         <v>22</v>
       </c>
-      <c r="M182" s="5">
+      <c r="M182" s="7">
         <v>784</v>
       </c>
     </row>
@@ -8218,7 +8232,7 @@
       <c r="L183" s="4">
         <v>34</v>
       </c>
-      <c r="M183" s="5">
+      <c r="M183" s="7">
         <v>777</v>
       </c>
     </row>
@@ -8259,7 +8273,7 @@
       <c r="L184" s="4">
         <v>53</v>
       </c>
-      <c r="M184" s="5">
+      <c r="M184" s="7">
         <v>898</v>
       </c>
     </row>
@@ -8298,7 +8312,7 @@
       <c r="L185" s="4">
         <v>35</v>
       </c>
-      <c r="M185" s="5">
+      <c r="M185" s="7">
         <v>892</v>
       </c>
     </row>
@@ -8306,46 +8320,46 @@
       <c r="A186" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="5">
+      <c r="B186" s="8"/>
+      <c r="C186" s="7">
         <v>366</v>
       </c>
-      <c r="D186" s="5">
+      <c r="D186" s="7">
         <v>660</v>
       </c>
-      <c r="E186" s="5">
-        <v>6.5510000000000002</v>
-      </c>
-      <c r="F186" s="5">
-        <v>1.7490000000000001</v>
-      </c>
-      <c r="G186" s="5">
-        <v>3.8</v>
-      </c>
-      <c r="H186" s="5">
-        <v>6.5289999999999999</v>
-      </c>
-      <c r="I186" s="5">
-        <v>3.5019999999999998</v>
-      </c>
-      <c r="J186" s="5">
+      <c r="E186" s="6">
+        <v>6551</v>
+      </c>
+      <c r="F186" s="6">
+        <v>1749</v>
+      </c>
+      <c r="G186" s="6">
+        <v>3800</v>
+      </c>
+      <c r="H186" s="6">
+        <v>6529</v>
+      </c>
+      <c r="I186" s="6">
+        <v>3502</v>
+      </c>
+      <c r="J186" s="7">
         <v>297</v>
       </c>
-      <c r="K186" s="5">
-        <v>15</v>
-      </c>
-      <c r="L186" s="5">
+      <c r="K186" s="7">
+        <v>15</v>
+      </c>
+      <c r="L186" s="7">
         <v>465</v>
       </c>
-      <c r="M186" s="5">
-        <v>23.934000000000001</v>
+      <c r="M186" s="6">
+        <v>23934</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
+      <c r="A187" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="8"/>
+      <c r="B187" s="9"/>
       <c r="C187" s="2" t="s">
         <v>2</v>
       </c>
@@ -8417,8 +8431,8 @@
       <c r="L188" s="4">
         <v>9</v>
       </c>
-      <c r="M188" s="5">
-        <v>1.4159999999999999</v>
+      <c r="M188" s="6">
+        <v>1416</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
@@ -8456,8 +8470,8 @@
       <c r="L189" s="4">
         <v>1</v>
       </c>
-      <c r="M189" s="5">
-        <v>1.2889999999999999</v>
+      <c r="M189" s="6">
+        <v>1289</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8497,8 +8511,8 @@
       <c r="L190" s="4">
         <v>2</v>
       </c>
-      <c r="M190" s="5">
-        <v>1.079</v>
+      <c r="M190" s="6">
+        <v>1079</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
@@ -8536,8 +8550,8 @@
       <c r="L191" s="4">
         <v>6</v>
       </c>
-      <c r="M191" s="5">
-        <v>1.012</v>
+      <c r="M191" s="6">
+        <v>1012</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
@@ -8577,8 +8591,8 @@
       <c r="L192" s="4">
         <v>3</v>
       </c>
-      <c r="M192" s="5">
-        <v>1.0960000000000001</v>
+      <c r="M192" s="6">
+        <v>1096</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
@@ -8616,8 +8630,8 @@
       <c r="L193" s="4">
         <v>5</v>
       </c>
-      <c r="M193" s="5">
-        <v>1.0489999999999999</v>
+      <c r="M193" s="6">
+        <v>1049</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
@@ -8657,8 +8671,8 @@
       <c r="L194" s="4">
         <v>6</v>
       </c>
-      <c r="M194" s="5">
-        <v>1.127</v>
+      <c r="M194" s="6">
+        <v>1127</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
@@ -8696,8 +8710,8 @@
       <c r="L195" s="4">
         <v>7</v>
       </c>
-      <c r="M195" s="5">
-        <v>1.0489999999999999</v>
+      <c r="M195" s="6">
+        <v>1049</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
@@ -8737,8 +8751,8 @@
       <c r="L196" s="4">
         <v>1</v>
       </c>
-      <c r="M196" s="5">
-        <v>1.294</v>
+      <c r="M196" s="6">
+        <v>1294</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
@@ -8776,8 +8790,8 @@
       <c r="L197" s="4">
         <v>6</v>
       </c>
-      <c r="M197" s="5">
-        <v>1.171</v>
+      <c r="M197" s="6">
+        <v>1171</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
@@ -8817,8 +8831,8 @@
       <c r="L198" s="4">
         <v>1</v>
       </c>
-      <c r="M198" s="5">
-        <v>1.1279999999999999</v>
+      <c r="M198" s="6">
+        <v>1128</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
@@ -8856,7 +8870,7 @@
       <c r="L199" s="4">
         <v>4</v>
       </c>
-      <c r="M199" s="5">
+      <c r="M199" s="7">
         <v>986</v>
       </c>
     </row>
@@ -8897,8 +8911,8 @@
       <c r="L200" s="4">
         <v>4</v>
       </c>
-      <c r="M200" s="5">
-        <v>1.048</v>
+      <c r="M200" s="6">
+        <v>1048</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
@@ -8936,7 +8950,7 @@
       <c r="L201" s="4">
         <v>5</v>
       </c>
-      <c r="M201" s="5">
+      <c r="M201" s="7">
         <v>971</v>
       </c>
     </row>
@@ -8977,7 +8991,7 @@
       <c r="L202" s="4">
         <v>11</v>
       </c>
-      <c r="M202" s="5">
+      <c r="M202" s="7">
         <v>919</v>
       </c>
     </row>
@@ -9016,7 +9030,7 @@
       <c r="L203" s="4">
         <v>4</v>
       </c>
-      <c r="M203" s="5">
+      <c r="M203" s="7">
         <v>991</v>
       </c>
     </row>
@@ -9057,7 +9071,7 @@
       <c r="L204" s="4">
         <v>7</v>
       </c>
-      <c r="M204" s="5">
+      <c r="M204" s="7">
         <v>978</v>
       </c>
     </row>
@@ -9096,7 +9110,7 @@
       <c r="L205" s="4">
         <v>10</v>
       </c>
-      <c r="M205" s="5">
+      <c r="M205" s="7">
         <v>985</v>
       </c>
     </row>
@@ -9137,7 +9151,7 @@
       <c r="L206" s="4">
         <v>8</v>
       </c>
-      <c r="M206" s="5">
+      <c r="M206" s="7">
         <v>803</v>
       </c>
     </row>
@@ -9176,7 +9190,7 @@
       <c r="L207" s="4">
         <v>9</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="7">
         <v>881</v>
       </c>
     </row>
@@ -9217,7 +9231,7 @@
       <c r="L208" s="4">
         <v>5</v>
       </c>
-      <c r="M208" s="5">
+      <c r="M208" s="7">
         <v>517</v>
       </c>
     </row>
@@ -9256,7 +9270,7 @@
       <c r="L209" s="4">
         <v>7</v>
       </c>
-      <c r="M209" s="5">
+      <c r="M209" s="7">
         <v>587</v>
       </c>
     </row>
@@ -9297,7 +9311,7 @@
       <c r="L210" s="4">
         <v>7</v>
       </c>
-      <c r="M210" s="5">
+      <c r="M210" s="7">
         <v>525</v>
       </c>
     </row>
@@ -9336,7 +9350,7 @@
       <c r="L211" s="4">
         <v>8</v>
       </c>
-      <c r="M211" s="5">
+      <c r="M211" s="7">
         <v>842</v>
       </c>
     </row>
@@ -9344,46 +9358,46 @@
       <c r="A212" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B212" s="6"/>
-      <c r="C212" s="5">
+      <c r="B212" s="8"/>
+      <c r="C212" s="7">
         <v>299</v>
       </c>
-      <c r="D212" s="5">
+      <c r="D212" s="7">
         <v>677</v>
       </c>
-      <c r="E212" s="5">
-        <v>5.7480000000000002</v>
-      </c>
-      <c r="F212" s="5">
-        <v>2.629</v>
-      </c>
-      <c r="G212" s="5">
-        <v>3.8439999999999999</v>
-      </c>
-      <c r="H212" s="5">
-        <v>6.9669999999999996</v>
-      </c>
-      <c r="I212" s="5">
-        <v>3.222</v>
-      </c>
-      <c r="J212" s="5">
+      <c r="E212" s="6">
+        <v>5748</v>
+      </c>
+      <c r="F212" s="6">
+        <v>2629</v>
+      </c>
+      <c r="G212" s="6">
+        <v>3844</v>
+      </c>
+      <c r="H212" s="6">
+        <v>6967</v>
+      </c>
+      <c r="I212" s="6">
+        <v>3222</v>
+      </c>
+      <c r="J212" s="7">
         <v>205</v>
       </c>
-      <c r="K212" s="5">
-        <v>16</v>
-      </c>
-      <c r="L212" s="5">
+      <c r="K212" s="7">
+        <v>16</v>
+      </c>
+      <c r="L212" s="7">
         <v>136</v>
       </c>
-      <c r="M212" s="5">
-        <v>23.742999999999999</v>
+      <c r="M212" s="6">
+        <v>23743</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="s">
+      <c r="A213" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B213" s="8"/>
+      <c r="B213" s="9"/>
       <c r="C213" s="2" t="s">
         <v>2</v>
       </c>
@@ -9440,8 +9454,8 @@
       <c r="G214" s="4">
         <v>501</v>
       </c>
-      <c r="H214" s="4">
-        <v>1.405</v>
+      <c r="H214" s="5">
+        <v>1405</v>
       </c>
       <c r="I214" s="4">
         <v>266</v>
@@ -9455,8 +9469,8 @@
       <c r="L214" s="4">
         <v>19</v>
       </c>
-      <c r="M214" s="5">
-        <v>2.2210000000000001</v>
+      <c r="M214" s="6">
+        <v>2221</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9479,8 +9493,8 @@
       <c r="G215" s="4">
         <v>380</v>
       </c>
-      <c r="H215" s="4">
-        <v>1.2549999999999999</v>
+      <c r="H215" s="5">
+        <v>1255</v>
       </c>
       <c r="I215" s="4">
         <v>481</v>
@@ -9494,8 +9508,8 @@
       <c r="L215" s="4">
         <v>6</v>
       </c>
-      <c r="M215" s="5">
-        <v>2.1619999999999999</v>
+      <c r="M215" s="6">
+        <v>2162</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9535,8 +9549,8 @@
       <c r="L216" s="4">
         <v>4</v>
       </c>
-      <c r="M216" s="5">
-        <v>1.8580000000000001</v>
+      <c r="M216" s="6">
+        <v>1858</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9574,8 +9588,8 @@
       <c r="L217" s="4">
         <v>4</v>
       </c>
-      <c r="M217" s="5">
-        <v>1.643</v>
+      <c r="M217" s="6">
+        <v>1643</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9615,8 +9629,8 @@
       <c r="L218" s="4">
         <v>5</v>
       </c>
-      <c r="M218" s="5">
-        <v>1.87</v>
+      <c r="M218" s="6">
+        <v>1870</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9654,8 +9668,8 @@
       <c r="L219" s="4">
         <v>4</v>
       </c>
-      <c r="M219" s="5">
-        <v>1.7330000000000001</v>
+      <c r="M219" s="6">
+        <v>1733</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
@@ -9695,8 +9709,8 @@
       <c r="L220" s="4">
         <v>6</v>
       </c>
-      <c r="M220" s="5">
-        <v>1.992</v>
+      <c r="M220" s="6">
+        <v>1992</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
@@ -9734,8 +9748,8 @@
       <c r="L221" s="4">
         <v>10</v>
       </c>
-      <c r="M221" s="5">
-        <v>1.887</v>
+      <c r="M221" s="6">
+        <v>1887</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
@@ -9760,8 +9774,8 @@
       <c r="G222" s="4">
         <v>317</v>
       </c>
-      <c r="H222" s="4">
-        <v>1.052</v>
+      <c r="H222" s="5">
+        <v>1052</v>
       </c>
       <c r="I222" s="4">
         <v>261</v>
@@ -9775,8 +9789,8 @@
       <c r="L222" s="4">
         <v>8</v>
       </c>
-      <c r="M222" s="5">
-        <v>2.153</v>
+      <c r="M222" s="6">
+        <v>2153</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
@@ -9814,8 +9828,8 @@
       <c r="L223" s="4">
         <v>8</v>
       </c>
-      <c r="M223" s="5">
-        <v>1.9590000000000001</v>
+      <c r="M223" s="6">
+        <v>1959</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
@@ -9855,8 +9869,8 @@
       <c r="L224" s="4">
         <v>12</v>
       </c>
-      <c r="M224" s="5">
-        <v>1.827</v>
+      <c r="M224" s="6">
+        <v>1827</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9894,8 +9908,8 @@
       <c r="L225" s="4">
         <v>9</v>
       </c>
-      <c r="M225" s="5">
-        <v>1.7190000000000001</v>
+      <c r="M225" s="6">
+        <v>1719</v>
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
@@ -9935,8 +9949,8 @@
       <c r="L226" s="4">
         <v>3</v>
       </c>
-      <c r="M226" s="5">
-        <v>1.748</v>
+      <c r="M226" s="6">
+        <v>1748</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
@@ -9974,8 +9988,8 @@
       <c r="L227" s="4">
         <v>8</v>
       </c>
-      <c r="M227" s="5">
-        <v>1.7989999999999999</v>
+      <c r="M227" s="6">
+        <v>1799</v>
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
@@ -10015,8 +10029,8 @@
       <c r="L228" s="4">
         <v>10</v>
       </c>
-      <c r="M228" s="5">
-        <v>1.7629999999999999</v>
+      <c r="M228" s="6">
+        <v>1763</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
@@ -10054,8 +10068,8 @@
       <c r="L229" s="4">
         <v>7</v>
       </c>
-      <c r="M229" s="5">
-        <v>1.671</v>
+      <c r="M229" s="6">
+        <v>1671</v>
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
@@ -10095,8 +10109,8 @@
       <c r="L230" s="4">
         <v>4</v>
       </c>
-      <c r="M230" s="5">
-        <v>1.671</v>
+      <c r="M230" s="6">
+        <v>1671</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
@@ -10110,8 +10124,8 @@
       <c r="D231" s="4">
         <v>56</v>
       </c>
-      <c r="E231" s="4">
-        <v>1.0820000000000001</v>
+      <c r="E231" s="5">
+        <v>1082</v>
       </c>
       <c r="F231" s="4">
         <v>165</v>
@@ -10134,8 +10148,8 @@
       <c r="L231" s="4">
         <v>5</v>
       </c>
-      <c r="M231" s="5">
-        <v>1.6639999999999999</v>
+      <c r="M231" s="6">
+        <v>1664</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
@@ -10175,8 +10189,8 @@
       <c r="L232" s="4">
         <v>6</v>
       </c>
-      <c r="M232" s="5">
-        <v>1.3109999999999999</v>
+      <c r="M232" s="6">
+        <v>1311</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
@@ -10214,8 +10228,8 @@
       <c r="L233" s="4">
         <v>6</v>
       </c>
-      <c r="M233" s="5">
-        <v>1.331</v>
+      <c r="M233" s="6">
+        <v>1331</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
@@ -10255,7 +10269,7 @@
       <c r="L234" s="4">
         <v>4</v>
       </c>
-      <c r="M234" s="5">
+      <c r="M234" s="7">
         <v>898</v>
       </c>
     </row>
@@ -10294,8 +10308,8 @@
       <c r="L235" s="4">
         <v>8</v>
       </c>
-      <c r="M235" s="5">
-        <v>1.042</v>
+      <c r="M235" s="6">
+        <v>1042</v>
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
@@ -10335,7 +10349,7 @@
       <c r="L236" s="4">
         <v>7</v>
       </c>
-      <c r="M236" s="5">
+      <c r="M236" s="7">
         <v>921</v>
       </c>
     </row>
@@ -10374,54 +10388,54 @@
       <c r="L237" s="4">
         <v>14</v>
       </c>
-      <c r="M237" s="5">
-        <v>1.2949999999999999</v>
+      <c r="M237" s="6">
+        <v>1295</v>
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="5">
+      <c r="B238" s="8"/>
+      <c r="C238" s="7">
         <v>507</v>
       </c>
-      <c r="D238" s="5">
+      <c r="D238" s="7">
         <v>877</v>
       </c>
-      <c r="E238" s="5">
-        <v>10.284000000000001</v>
-      </c>
-      <c r="F238" s="5">
-        <v>4.6890000000000001</v>
-      </c>
-      <c r="G238" s="5">
-        <v>5.2779999999999996</v>
-      </c>
-      <c r="H238" s="5">
-        <v>12.311</v>
-      </c>
-      <c r="I238" s="5">
-        <v>5.6</v>
-      </c>
-      <c r="J238" s="5">
+      <c r="E238" s="6">
+        <v>10284</v>
+      </c>
+      <c r="F238" s="6">
+        <v>4689</v>
+      </c>
+      <c r="G238" s="6">
+        <v>5278</v>
+      </c>
+      <c r="H238" s="6">
+        <v>12311</v>
+      </c>
+      <c r="I238" s="6">
+        <v>5600</v>
+      </c>
+      <c r="J238" s="7">
         <v>385</v>
       </c>
-      <c r="K238" s="5">
+      <c r="K238" s="7">
         <v>30</v>
       </c>
-      <c r="L238" s="5">
+      <c r="L238" s="7">
         <v>177</v>
       </c>
-      <c r="M238" s="5">
-        <v>40.137999999999998</v>
+      <c r="M238" s="6">
+        <v>40138</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="s">
+      <c r="A239" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B239" s="8"/>
+      <c r="B239" s="9"/>
       <c r="C239" s="2" t="s">
         <v>2</v>
       </c>
@@ -10475,14 +10489,14 @@
       <c r="F240" s="4">
         <v>12</v>
       </c>
-      <c r="G240" s="4">
-        <v>1.7410000000000001</v>
-      </c>
-      <c r="H240" s="4">
-        <v>5.6849999999999996</v>
-      </c>
-      <c r="I240" s="4">
-        <v>1.4119999999999999</v>
+      <c r="G240" s="5">
+        <v>1741</v>
+      </c>
+      <c r="H240" s="5">
+        <v>5685</v>
+      </c>
+      <c r="I240" s="5">
+        <v>1412</v>
       </c>
       <c r="J240" s="4">
         <v>15</v>
@@ -10493,8 +10507,8 @@
       <c r="L240" s="4">
         <v>49</v>
       </c>
-      <c r="M240" s="5">
-        <v>9.0329999999999995</v>
+      <c r="M240" s="6">
+        <v>9033</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
@@ -10514,14 +10528,14 @@
       <c r="F241" s="4">
         <v>9</v>
       </c>
-      <c r="G241" s="4">
-        <v>1.419</v>
-      </c>
-      <c r="H241" s="4">
-        <v>5.194</v>
-      </c>
-      <c r="I241" s="4">
-        <v>2.0649999999999999</v>
+      <c r="G241" s="5">
+        <v>1419</v>
+      </c>
+      <c r="H241" s="5">
+        <v>5194</v>
+      </c>
+      <c r="I241" s="5">
+        <v>2065</v>
       </c>
       <c r="J241" s="4">
         <v>34</v>
@@ -10532,8 +10546,8 @@
       <c r="L241" s="4">
         <v>13</v>
       </c>
-      <c r="M241" s="5">
-        <v>8.9260000000000002</v>
+      <c r="M241" s="6">
+        <v>8926</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
@@ -10555,14 +10569,14 @@
       <c r="F242" s="4">
         <v>105</v>
       </c>
-      <c r="G242" s="4">
-        <v>1.206</v>
-      </c>
-      <c r="H242" s="4">
-        <v>2.6760000000000002</v>
-      </c>
-      <c r="I242" s="4">
-        <v>3.4830000000000001</v>
+      <c r="G242" s="5">
+        <v>1206</v>
+      </c>
+      <c r="H242" s="5">
+        <v>2676</v>
+      </c>
+      <c r="I242" s="5">
+        <v>3483</v>
       </c>
       <c r="J242" s="4">
         <v>257</v>
@@ -10573,8 +10587,8 @@
       <c r="L242" s="4">
         <v>29</v>
       </c>
-      <c r="M242" s="5">
-        <v>7.8339999999999996</v>
+      <c r="M242" s="6">
+        <v>7834</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
@@ -10597,11 +10611,11 @@
       <c r="G243" s="4">
         <v>921</v>
       </c>
-      <c r="H243" s="4">
-        <v>1.6619999999999999</v>
-      </c>
-      <c r="I243" s="4">
-        <v>4.1369999999999996</v>
+      <c r="H243" s="5">
+        <v>1662</v>
+      </c>
+      <c r="I243" s="5">
+        <v>4137</v>
       </c>
       <c r="J243" s="4">
         <v>425</v>
@@ -10612,8 +10626,8 @@
       <c r="L243" s="4">
         <v>27</v>
       </c>
-      <c r="M243" s="5">
-        <v>7.5469999999999997</v>
+      <c r="M243" s="6">
+        <v>7547</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
@@ -10638,11 +10652,11 @@
       <c r="G244" s="4">
         <v>643</v>
       </c>
-      <c r="H244" s="4">
-        <v>2.6339999999999999</v>
-      </c>
-      <c r="I244" s="4">
-        <v>3.15</v>
+      <c r="H244" s="5">
+        <v>2634</v>
+      </c>
+      <c r="I244" s="5">
+        <v>3150</v>
       </c>
       <c r="J244" s="4">
         <v>459</v>
@@ -10653,8 +10667,8 @@
       <c r="L244" s="4">
         <v>29</v>
       </c>
-      <c r="M244" s="5">
-        <v>7.835</v>
+      <c r="M244" s="6">
+        <v>7835</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
@@ -10677,11 +10691,11 @@
       <c r="G245" s="4">
         <v>497</v>
       </c>
-      <c r="H245" s="4">
-        <v>1.863</v>
-      </c>
-      <c r="I245" s="4">
-        <v>3.5539999999999998</v>
+      <c r="H245" s="5">
+        <v>1863</v>
+      </c>
+      <c r="I245" s="5">
+        <v>3554</v>
       </c>
       <c r="J245" s="4">
         <v>524</v>
@@ -10692,8 +10706,8 @@
       <c r="L245" s="4">
         <v>37</v>
       </c>
-      <c r="M245" s="5">
-        <v>7.5389999999999997</v>
+      <c r="M245" s="6">
+        <v>7539</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
@@ -10718,11 +10732,11 @@
       <c r="G246" s="4">
         <v>588</v>
       </c>
-      <c r="H246" s="4">
-        <v>2.58</v>
-      </c>
-      <c r="I246" s="4">
-        <v>2.734</v>
+      <c r="H246" s="5">
+        <v>2580</v>
+      </c>
+      <c r="I246" s="5">
+        <v>2734</v>
       </c>
       <c r="J246" s="4">
         <v>484</v>
@@ -10733,8 +10747,8 @@
       <c r="L246" s="4">
         <v>30</v>
       </c>
-      <c r="M246" s="5">
-        <v>7.7610000000000001</v>
+      <c r="M246" s="6">
+        <v>7761</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
@@ -10757,11 +10771,11 @@
       <c r="G247" s="4">
         <v>679</v>
       </c>
-      <c r="H247" s="4">
-        <v>2.3290000000000002</v>
-      </c>
-      <c r="I247" s="4">
-        <v>2.62</v>
+      <c r="H247" s="5">
+        <v>2329</v>
+      </c>
+      <c r="I247" s="5">
+        <v>2620</v>
       </c>
       <c r="J247" s="4">
         <v>491</v>
@@ -10772,8 +10786,8 @@
       <c r="L247" s="4">
         <v>39</v>
       </c>
-      <c r="M247" s="5">
-        <v>7.8250000000000002</v>
+      <c r="M247" s="6">
+        <v>7825</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
@@ -10795,14 +10809,14 @@
       <c r="F248" s="4">
         <v>923</v>
       </c>
-      <c r="G248" s="4">
-        <v>1.123</v>
-      </c>
-      <c r="H248" s="4">
-        <v>2.867</v>
-      </c>
-      <c r="I248" s="4">
-        <v>2.2730000000000001</v>
+      <c r="G248" s="5">
+        <v>1123</v>
+      </c>
+      <c r="H248" s="5">
+        <v>2867</v>
+      </c>
+      <c r="I248" s="5">
+        <v>2273</v>
       </c>
       <c r="J248" s="4">
         <v>452</v>
@@ -10813,8 +10827,8 @@
       <c r="L248" s="4">
         <v>41</v>
       </c>
-      <c r="M248" s="5">
-        <v>8.4830000000000005</v>
+      <c r="M248" s="6">
+        <v>8483</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
@@ -10828,20 +10842,20 @@
       <c r="D249" s="4">
         <v>80</v>
       </c>
-      <c r="E249" s="4">
-        <v>1.1870000000000001</v>
+      <c r="E249" s="5">
+        <v>1187</v>
       </c>
       <c r="F249" s="4">
         <v>812</v>
       </c>
-      <c r="G249" s="4">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="H249" s="4">
-        <v>2.6819999999999999</v>
-      </c>
-      <c r="I249" s="4">
-        <v>2.1480000000000001</v>
+      <c r="G249" s="5">
+        <v>1172</v>
+      </c>
+      <c r="H249" s="5">
+        <v>2682</v>
+      </c>
+      <c r="I249" s="5">
+        <v>2148</v>
       </c>
       <c r="J249" s="4">
         <v>376</v>
@@ -10852,8 +10866,8 @@
       <c r="L249" s="4">
         <v>28</v>
       </c>
-      <c r="M249" s="5">
-        <v>8.6180000000000003</v>
+      <c r="M249" s="6">
+        <v>8618</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
@@ -10872,17 +10886,17 @@
       <c r="E250" s="4">
         <v>920</v>
       </c>
-      <c r="F250" s="4">
-        <v>1.0780000000000001</v>
-      </c>
-      <c r="G250" s="4">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="H250" s="4">
-        <v>2.262</v>
-      </c>
-      <c r="I250" s="4">
-        <v>1.7470000000000001</v>
+      <c r="F250" s="5">
+        <v>1078</v>
+      </c>
+      <c r="G250" s="5">
+        <v>1090</v>
+      </c>
+      <c r="H250" s="5">
+        <v>2262</v>
+      </c>
+      <c r="I250" s="5">
+        <v>1747</v>
       </c>
       <c r="J250" s="4">
         <v>313</v>
@@ -10893,8 +10907,8 @@
       <c r="L250" s="4">
         <v>48</v>
       </c>
-      <c r="M250" s="5">
-        <v>7.6150000000000002</v>
+      <c r="M250" s="6">
+        <v>7615</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
@@ -10908,20 +10922,20 @@
       <c r="D251" s="4">
         <v>72</v>
       </c>
-      <c r="E251" s="4">
-        <v>1.5349999999999999</v>
-      </c>
-      <c r="F251" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="G251" s="4">
-        <v>1.119</v>
-      </c>
-      <c r="H251" s="4">
-        <v>2.0539999999999998</v>
-      </c>
-      <c r="I251" s="4">
-        <v>1.452</v>
+      <c r="E251" s="5">
+        <v>1535</v>
+      </c>
+      <c r="F251" s="5">
+        <v>1030</v>
+      </c>
+      <c r="G251" s="5">
+        <v>1119</v>
+      </c>
+      <c r="H251" s="5">
+        <v>2054</v>
+      </c>
+      <c r="I251" s="5">
+        <v>1452</v>
       </c>
       <c r="J251" s="4">
         <v>227</v>
@@ -10932,8 +10946,8 @@
       <c r="L251" s="4">
         <v>43</v>
       </c>
-      <c r="M251" s="5">
-        <v>7.6669999999999998</v>
+      <c r="M251" s="6">
+        <v>7667</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
@@ -10949,20 +10963,20 @@
       <c r="D252" s="4">
         <v>33</v>
       </c>
-      <c r="E252" s="4">
-        <v>1.1519999999999999</v>
-      </c>
-      <c r="F252" s="4">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="G252" s="4">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="H252" s="4">
-        <v>1.843</v>
-      </c>
-      <c r="I252" s="4">
-        <v>1.403</v>
+      <c r="E252" s="5">
+        <v>1152</v>
+      </c>
+      <c r="F252" s="5">
+        <v>1197</v>
+      </c>
+      <c r="G252" s="5">
+        <v>1172</v>
+      </c>
+      <c r="H252" s="5">
+        <v>1843</v>
+      </c>
+      <c r="I252" s="5">
+        <v>1403</v>
       </c>
       <c r="J252" s="4">
         <v>193</v>
@@ -10973,8 +10987,8 @@
       <c r="L252" s="4">
         <v>36</v>
       </c>
-      <c r="M252" s="5">
-        <v>7.1470000000000002</v>
+      <c r="M252" s="6">
+        <v>7147</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
@@ -10988,17 +11002,17 @@
       <c r="D253" s="4">
         <v>87</v>
       </c>
-      <c r="E253" s="4">
-        <v>1.99</v>
-      </c>
-      <c r="F253" s="4">
-        <v>1.244</v>
-      </c>
-      <c r="G253" s="4">
-        <v>1.069</v>
-      </c>
-      <c r="H253" s="4">
-        <v>1.6379999999999999</v>
+      <c r="E253" s="5">
+        <v>1990</v>
+      </c>
+      <c r="F253" s="5">
+        <v>1244</v>
+      </c>
+      <c r="G253" s="5">
+        <v>1069</v>
+      </c>
+      <c r="H253" s="5">
+        <v>1638</v>
       </c>
       <c r="I253" s="4">
         <v>976</v>
@@ -11012,8 +11026,8 @@
       <c r="L253" s="4">
         <v>39</v>
       </c>
-      <c r="M253" s="5">
-        <v>7.2750000000000004</v>
+      <c r="M253" s="6">
+        <v>7275</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
@@ -11029,20 +11043,20 @@
       <c r="D254" s="4">
         <v>28</v>
       </c>
-      <c r="E254" s="4">
-        <v>1.48</v>
-      </c>
-      <c r="F254" s="4">
-        <v>1.1339999999999999</v>
+      <c r="E254" s="5">
+        <v>1480</v>
+      </c>
+      <c r="F254" s="5">
+        <v>1134</v>
       </c>
       <c r="G254" s="4">
         <v>977</v>
       </c>
-      <c r="H254" s="4">
-        <v>1.617</v>
-      </c>
-      <c r="I254" s="4">
-        <v>1.0629999999999999</v>
+      <c r="H254" s="5">
+        <v>1617</v>
+      </c>
+      <c r="I254" s="5">
+        <v>1063</v>
       </c>
       <c r="J254" s="4">
         <v>135</v>
@@ -11053,8 +11067,8 @@
       <c r="L254" s="4">
         <v>62</v>
       </c>
-      <c r="M254" s="5">
-        <v>6.5890000000000004</v>
+      <c r="M254" s="6">
+        <v>6589</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
@@ -11068,8 +11082,8 @@
       <c r="D255" s="4">
         <v>141</v>
       </c>
-      <c r="E255" s="4">
-        <v>2.6789999999999998</v>
+      <c r="E255" s="5">
+        <v>2679</v>
       </c>
       <c r="F255" s="4">
         <v>961</v>
@@ -11077,8 +11091,8 @@
       <c r="G255" s="4">
         <v>868</v>
       </c>
-      <c r="H255" s="4">
-        <v>1.4159999999999999</v>
+      <c r="H255" s="5">
+        <v>1416</v>
       </c>
       <c r="I255" s="4">
         <v>679</v>
@@ -11092,8 +11106,8 @@
       <c r="L255" s="4">
         <v>60</v>
       </c>
-      <c r="M255" s="5">
-        <v>6.9889999999999999</v>
+      <c r="M255" s="6">
+        <v>6989</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
@@ -11109,8 +11123,8 @@
       <c r="D256" s="4">
         <v>54</v>
       </c>
-      <c r="E256" s="4">
-        <v>2.081</v>
+      <c r="E256" s="5">
+        <v>2081</v>
       </c>
       <c r="F256" s="4">
         <v>684</v>
@@ -11118,8 +11132,8 @@
       <c r="G256" s="4">
         <v>625</v>
       </c>
-      <c r="H256" s="4">
-        <v>1.3049999999999999</v>
+      <c r="H256" s="5">
+        <v>1305</v>
       </c>
       <c r="I256" s="4">
         <v>841</v>
@@ -11133,8 +11147,8 @@
       <c r="L256" s="4">
         <v>62</v>
       </c>
-      <c r="M256" s="5">
-        <v>5.7939999999999996</v>
+      <c r="M256" s="6">
+        <v>5794</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
@@ -11148,8 +11162,8 @@
       <c r="D257" s="4">
         <v>182</v>
       </c>
-      <c r="E257" s="4">
-        <v>3.2919999999999998</v>
+      <c r="E257" s="5">
+        <v>3292</v>
       </c>
       <c r="F257" s="4">
         <v>500</v>
@@ -11157,8 +11171,8 @@
       <c r="G257" s="4">
         <v>540</v>
       </c>
-      <c r="H257" s="4">
-        <v>1.117</v>
+      <c r="H257" s="5">
+        <v>1117</v>
       </c>
       <c r="I257" s="4">
         <v>503</v>
@@ -11172,8 +11186,8 @@
       <c r="L257" s="4">
         <v>74</v>
       </c>
-      <c r="M257" s="5">
-        <v>6.3659999999999997</v>
+      <c r="M257" s="6">
+        <v>6366</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
@@ -11189,8 +11203,8 @@
       <c r="D258" s="4">
         <v>67</v>
       </c>
-      <c r="E258" s="4">
-        <v>2.2200000000000002</v>
+      <c r="E258" s="5">
+        <v>2220</v>
       </c>
       <c r="F258" s="4">
         <v>276</v>
@@ -11213,8 +11227,8 @@
       <c r="L258" s="4">
         <v>75</v>
       </c>
-      <c r="M258" s="5">
-        <v>4.8310000000000004</v>
+      <c r="M258" s="6">
+        <v>4831</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
@@ -11228,8 +11242,8 @@
       <c r="D259" s="4">
         <v>268</v>
       </c>
-      <c r="E259" s="4">
-        <v>3.3029999999999999</v>
+      <c r="E259" s="5">
+        <v>3303</v>
       </c>
       <c r="F259" s="4">
         <v>206</v>
@@ -11252,8 +11266,8 @@
       <c r="L259" s="4">
         <v>57</v>
       </c>
-      <c r="M259" s="5">
-        <v>5.5119999999999996</v>
+      <c r="M259" s="6">
+        <v>5512</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
@@ -11269,8 +11283,8 @@
       <c r="D260" s="4">
         <v>65</v>
       </c>
-      <c r="E260" s="4">
-        <v>1.861</v>
+      <c r="E260" s="5">
+        <v>1861</v>
       </c>
       <c r="F260" s="4">
         <v>84</v>
@@ -11293,8 +11307,8 @@
       <c r="L260" s="4">
         <v>47</v>
       </c>
-      <c r="M260" s="5">
-        <v>3.3570000000000002</v>
+      <c r="M260" s="6">
+        <v>3357</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -11308,8 +11322,8 @@
       <c r="D261" s="4">
         <v>274</v>
       </c>
-      <c r="E261" s="4">
-        <v>2.4380000000000002</v>
+      <c r="E261" s="5">
+        <v>2438</v>
       </c>
       <c r="F261" s="4">
         <v>54</v>
@@ -11332,8 +11346,8 @@
       <c r="L261" s="4">
         <v>68</v>
       </c>
-      <c r="M261" s="5">
-        <v>3.9009999999999998</v>
+      <c r="M261" s="6">
+        <v>3901</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
@@ -11349,8 +11363,8 @@
       <c r="D262" s="4">
         <v>206</v>
       </c>
-      <c r="E262" s="4">
-        <v>2.0129999999999999</v>
+      <c r="E262" s="5">
+        <v>2013</v>
       </c>
       <c r="F262" s="4">
         <v>38</v>
@@ -11373,8 +11387,8 @@
       <c r="L262" s="4">
         <v>73</v>
       </c>
-      <c r="M262" s="5">
-        <v>3.5379999999999998</v>
+      <c r="M262" s="6">
+        <v>3538</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
@@ -11388,8 +11402,8 @@
       <c r="D263" s="4">
         <v>783</v>
       </c>
-      <c r="E263" s="4">
-        <v>2.84</v>
+      <c r="E263" s="5">
+        <v>2840</v>
       </c>
       <c r="F263" s="4">
         <v>20</v>
@@ -11412,54 +11426,54 @@
       <c r="L263" s="4">
         <v>75</v>
       </c>
-      <c r="M263" s="5">
-        <v>4.976</v>
+      <c r="M263" s="6">
+        <v>4976</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B264" s="6"/>
-      <c r="C264" s="5">
-        <v>1.579</v>
-      </c>
-      <c r="D264" s="5">
-        <v>2.9409999999999998</v>
-      </c>
-      <c r="E264" s="5">
-        <v>33.045999999999999</v>
-      </c>
-      <c r="F264" s="5">
-        <v>13.864000000000001</v>
-      </c>
-      <c r="G264" s="5">
-        <v>19.396999999999998</v>
-      </c>
-      <c r="H264" s="5">
-        <v>46.302999999999997</v>
-      </c>
-      <c r="I264" s="5">
-        <v>38.828000000000003</v>
-      </c>
-      <c r="J264" s="5">
-        <v>4.8289999999999997</v>
-      </c>
-      <c r="K264" s="5">
-        <v>1.03</v>
-      </c>
-      <c r="L264" s="5">
-        <v>1.141</v>
-      </c>
-      <c r="M264" s="5">
-        <v>162.958</v>
+      <c r="B264" s="8"/>
+      <c r="C264" s="6">
+        <v>1579</v>
+      </c>
+      <c r="D264" s="6">
+        <v>2941</v>
+      </c>
+      <c r="E264" s="6">
+        <v>33046</v>
+      </c>
+      <c r="F264" s="6">
+        <v>13864</v>
+      </c>
+      <c r="G264" s="6">
+        <v>19397</v>
+      </c>
+      <c r="H264" s="6">
+        <v>46303</v>
+      </c>
+      <c r="I264" s="6">
+        <v>38828</v>
+      </c>
+      <c r="J264" s="6">
+        <v>4829</v>
+      </c>
+      <c r="K264" s="6">
+        <v>1030</v>
+      </c>
+      <c r="L264" s="6">
+        <v>1141</v>
+      </c>
+      <c r="M264" s="6">
+        <v>162958</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="s">
+      <c r="A265" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B265" s="8"/>
+      <c r="B265" s="9"/>
       <c r="C265" s="2" t="s">
         <v>2</v>
       </c>
@@ -11531,8 +11545,8 @@
       <c r="L266" s="4">
         <v>14</v>
       </c>
-      <c r="M266" s="5">
-        <v>1.216</v>
+      <c r="M266" s="6">
+        <v>1216</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
@@ -11570,8 +11584,8 @@
       <c r="L267" s="4">
         <v>3</v>
       </c>
-      <c r="M267" s="5">
-        <v>1.1419999999999999</v>
+      <c r="M267" s="6">
+        <v>1142</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
@@ -11611,7 +11625,7 @@
       <c r="L268" s="4">
         <v>5</v>
       </c>
-      <c r="M268" s="5">
+      <c r="M268" s="7">
         <v>973</v>
       </c>
     </row>
@@ -11650,7 +11664,7 @@
       <c r="L269" s="4">
         <v>6</v>
       </c>
-      <c r="M269" s="5">
+      <c r="M269" s="7">
         <v>884</v>
       </c>
     </row>
@@ -11691,7 +11705,7 @@
       <c r="L270" s="4">
         <v>7</v>
       </c>
-      <c r="M270" s="5">
+      <c r="M270" s="7">
         <v>961</v>
       </c>
     </row>
@@ -11730,7 +11744,7 @@
       <c r="L271" s="4">
         <v>1</v>
       </c>
-      <c r="M271" s="5">
+      <c r="M271" s="7">
         <v>880</v>
       </c>
     </row>
@@ -11771,8 +11785,8 @@
       <c r="L272" s="4">
         <v>6</v>
       </c>
-      <c r="M272" s="5">
-        <v>1.0349999999999999</v>
+      <c r="M272" s="6">
+        <v>1035</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
@@ -11810,7 +11824,7 @@
       <c r="L273" s="4">
         <v>4</v>
       </c>
-      <c r="M273" s="5">
+      <c r="M273" s="7">
         <v>931</v>
       </c>
     </row>
@@ -11851,8 +11865,8 @@
       <c r="L274" s="4">
         <v>14</v>
       </c>
-      <c r="M274" s="5">
-        <v>1.075</v>
+      <c r="M274" s="6">
+        <v>1075</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
@@ -11890,8 +11904,8 @@
       <c r="L275" s="4">
         <v>12</v>
       </c>
-      <c r="M275" s="5">
-        <v>1.0680000000000001</v>
+      <c r="M275" s="6">
+        <v>1068</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
@@ -11931,8 +11945,8 @@
       <c r="L276" s="4">
         <v>11</v>
       </c>
-      <c r="M276" s="5">
-        <v>1.0509999999999999</v>
+      <c r="M276" s="6">
+        <v>1051</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
@@ -11970,8 +11984,8 @@
       <c r="L277" s="4">
         <v>11</v>
       </c>
-      <c r="M277" s="5">
-        <v>1.01</v>
+      <c r="M277" s="6">
+        <v>1010</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
@@ -12011,8 +12025,8 @@
       <c r="L278" s="4">
         <v>18</v>
       </c>
-      <c r="M278" s="5">
-        <v>1.25</v>
+      <c r="M278" s="6">
+        <v>1250</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
@@ -12050,8 +12064,8 @@
       <c r="L279" s="4">
         <v>8</v>
       </c>
-      <c r="M279" s="5">
-        <v>1.2909999999999999</v>
+      <c r="M279" s="6">
+        <v>1291</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
@@ -12091,8 +12105,8 @@
       <c r="L280" s="4">
         <v>14</v>
       </c>
-      <c r="M280" s="5">
-        <v>1.3620000000000001</v>
+      <c r="M280" s="6">
+        <v>1362</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -12130,8 +12144,8 @@
       <c r="L281" s="4">
         <v>22</v>
       </c>
-      <c r="M281" s="5">
-        <v>1.4930000000000001</v>
+      <c r="M281" s="6">
+        <v>1493</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
@@ -12171,8 +12185,8 @@
       <c r="L282" s="4">
         <v>22</v>
       </c>
-      <c r="M282" s="5">
-        <v>1.4470000000000001</v>
+      <c r="M282" s="6">
+        <v>1447</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
@@ -12210,8 +12224,8 @@
       <c r="L283" s="4">
         <v>20</v>
       </c>
-      <c r="M283" s="5">
-        <v>1.54</v>
+      <c r="M283" s="6">
+        <v>1540</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
@@ -12251,8 +12265,8 @@
       <c r="L284" s="4">
         <v>36</v>
       </c>
-      <c r="M284" s="5">
-        <v>1.3580000000000001</v>
+      <c r="M284" s="6">
+        <v>1358</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
@@ -12290,8 +12304,8 @@
       <c r="L285" s="4">
         <v>27</v>
       </c>
-      <c r="M285" s="5">
-        <v>1.399</v>
+      <c r="M285" s="6">
+        <v>1399</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
@@ -12331,8 +12345,8 @@
       <c r="L286" s="4">
         <v>28</v>
       </c>
-      <c r="M286" s="5">
-        <v>1.0620000000000001</v>
+      <c r="M286" s="6">
+        <v>1062</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
@@ -12370,8 +12384,8 @@
       <c r="L287" s="4">
         <v>28</v>
       </c>
-      <c r="M287" s="5">
-        <v>1.103</v>
+      <c r="M287" s="6">
+        <v>1103</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
@@ -12411,8 +12425,8 @@
       <c r="L288" s="4">
         <v>30</v>
       </c>
-      <c r="M288" s="5">
-        <v>1.218</v>
+      <c r="M288" s="6">
+        <v>1218</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
@@ -12450,63 +12464,73 @@
       <c r="L289" s="4">
         <v>38</v>
       </c>
-      <c r="M289" s="5">
-        <v>1.482</v>
+      <c r="M289" s="6">
+        <v>1482</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B290" s="6"/>
-      <c r="C290" s="5">
+      <c r="B290" s="8"/>
+      <c r="C290" s="7">
         <v>434</v>
       </c>
-      <c r="D290" s="5">
-        <v>1.159</v>
-      </c>
-      <c r="E290" s="5">
-        <v>10.241</v>
-      </c>
-      <c r="F290" s="5">
-        <v>2.133</v>
-      </c>
-      <c r="G290" s="5">
-        <v>3.6030000000000002</v>
-      </c>
-      <c r="H290" s="5">
-        <v>6.3</v>
-      </c>
-      <c r="I290" s="5">
-        <v>3.6349999999999998</v>
-      </c>
-      <c r="J290" s="5">
+      <c r="D290" s="6">
+        <v>1159</v>
+      </c>
+      <c r="E290" s="6">
+        <v>10241</v>
+      </c>
+      <c r="F290" s="6">
+        <v>2133</v>
+      </c>
+      <c r="G290" s="6">
+        <v>3603</v>
+      </c>
+      <c r="H290" s="6">
+        <v>6300</v>
+      </c>
+      <c r="I290" s="6">
+        <v>3635</v>
+      </c>
+      <c r="J290" s="7">
         <v>313</v>
       </c>
-      <c r="K290" s="5">
+      <c r="K290" s="7">
         <v>28</v>
       </c>
-      <c r="L290" s="5">
+      <c r="L290" s="7">
         <v>385</v>
       </c>
-      <c r="M290" s="5">
-        <v>28.231000000000002</v>
+      <c r="M290" s="6">
+        <v>28231</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A291" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A292" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A265:B265"/>
     <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A135:B135"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
